--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E190C4B4-86AB-45F2-948D-C0FE483E076B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD0317D-B141-4482-B217-5271EFBD66BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="403">
   <si>
     <t>UserName</t>
   </si>
@@ -661,9 +661,6 @@
   </si>
   <si>
     <t>Symbol</t>
-  </si>
-  <si>
-    <t>LOTUSTESTQA</t>
   </si>
   <si>
     <t>invalidcode</t>
@@ -1241,6 +1238,42 @@
   <si>
     <t>Gitf card Purchase</t>
   </si>
+  <si>
+    <t>SKU-10002926 -3QTY</t>
+  </si>
+  <si>
+    <t>Norway-GuestAddress</t>
+  </si>
+  <si>
+    <t>Fagerengveien 2</t>
+  </si>
+  <si>
+    <t>Sandefjord</t>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>Vestfold Og Telemark</t>
+  </si>
+  <si>
+    <t>Daylite™</t>
+  </si>
+  <si>
+    <t>Svart</t>
+  </si>
+  <si>
+    <t>SKU-10004993 -2QTY</t>
+  </si>
+  <si>
+    <t>Daylite™ Toiletry Kit</t>
+  </si>
+  <si>
+    <t>Partial_Giftcard</t>
+  </si>
+  <si>
+    <t>4DU95D85Y5929Y53T88D</t>
+  </si>
 </sst>
 </file>
 
@@ -1249,7 +1282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,6 +1378,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1379,7 +1426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1419,6 +1466,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1703,7 +1754,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1849,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="J4" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1998,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>199</v>
@@ -2048,10 +2099,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>47</v>
@@ -2066,16 +2117,16 @@
         <v>92</v>
       </c>
       <c r="P2" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" t="s">
         <v>248</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>249</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>93</v>
@@ -2086,7 +2137,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -2097,10 +2148,10 @@
         <v>201</v>
       </c>
       <c r="H4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" t="s">
         <v>265</v>
-      </c>
-      <c r="I4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2122,7 +2173,7 @@
         <v>94</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2248,7 @@
         <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>199</v>
@@ -2235,10 +2286,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>47</v>
@@ -2253,16 +2304,16 @@
         <v>92</v>
       </c>
       <c r="I2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" t="s">
         <v>248</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>249</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>93</v>
@@ -2276,16 +2327,16 @@
         <v>204</v>
       </c>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>72</v>
@@ -2296,7 +2347,7 @@
         <v>166</v>
       </c>
       <c r="N4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>72</v>
@@ -2321,10 +2372,10 @@
         <v>201</v>
       </c>
       <c r="P6" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q6" t="s">
         <v>265</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2427,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2444,13 +2495,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -2465,16 +2516,16 @@
         <v>92</v>
       </c>
       <c r="J2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" t="s">
         <v>248</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>249</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>93</v>
@@ -2485,13 +2536,13 @@
         <v>89</v>
       </c>
       <c r="O3" t="s">
+        <v>239</v>
+      </c>
+      <c r="P3" t="s">
         <v>240</v>
       </c>
-      <c r="P3" t="s">
-        <v>241</v>
-      </c>
       <c r="Q3" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S3" t="s">
         <v>95</v>
@@ -2508,19 +2559,19 @@
         <v>124</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" t="s">
         <v>125</v>
       </c>
       <c r="O4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -2537,7 +2588,7 @@
         <v>128</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5" t="s">
         <v>129</v>
@@ -2551,7 +2602,7 @@
         <v>134</v>
       </c>
       <c r="O6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="T6" s="5" t="s">
@@ -2601,13 +2652,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2615,13 +2666,13 @@
         <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
         <v>191</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
         <v>95</v>
@@ -2632,18 +2683,18 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>204</v>
@@ -2677,7 +2728,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2687,10 +2738,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -2799,13 +2850,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -2820,16 +2871,16 @@
         <v>92</v>
       </c>
       <c r="I2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" t="s">
         <v>248</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>249</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>110</v>
@@ -2846,16 +2897,16 @@
         <v>92</v>
       </c>
       <c r="I3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" t="s">
         <v>244</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>245</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>110</v>
@@ -2892,16 +2943,16 @@
         <v>92</v>
       </c>
       <c r="I5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" t="s">
         <v>244</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>245</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>110</v>
@@ -2918,22 +2969,22 @@
         <v>92</v>
       </c>
       <c r="I6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" t="s">
         <v>248</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>249</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>110</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -3013,7 +3064,7 @@
         <v>148</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -3031,7 +3082,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>199</v>
@@ -3048,13 +3099,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -3069,16 +3120,16 @@
         <v>92</v>
       </c>
       <c r="I2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" t="s">
         <v>248</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>249</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>93</v>
@@ -3089,19 +3140,19 @@
         <v>139</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q3" t="s">
+        <v>288</v>
+      </c>
+      <c r="R3" t="s">
         <v>289</v>
-      </c>
-      <c r="R3" t="s">
-        <v>290</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -3118,7 +3169,7 @@
         <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3148,19 +3199,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -3197,36 +3248,36 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" t="s">
         <v>347</v>
       </c>
-      <c r="D3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>348</v>
       </c>
-      <c r="F3" t="s">
-        <v>349</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>47</v>
@@ -3237,10 +3288,10 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3304,19 +3355,19 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3324,13 +3375,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>47</v>
@@ -3351,36 +3402,36 @@
         <v>162</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" t="s">
         <v>244</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>245</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>246</v>
       </c>
-      <c r="J4" t="s">
-        <v>247</v>
-      </c>
       <c r="K4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M4" t="s">
         <v>320</v>
-      </c>
-      <c r="M4" t="s">
-        <v>321</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>93</v>
@@ -3447,7 +3498,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>39</v>
@@ -3456,13 +3507,13 @@
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>41</v>
@@ -3496,7 +3547,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F2" s="2"/>
       <c r="I2" s="2"/>
@@ -3527,7 +3578,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F4" s="2"/>
       <c r="T4" s="5"/>
@@ -3538,7 +3589,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
         <v>150</v>
@@ -3552,7 +3603,7 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="4"/>
@@ -3563,10 +3614,10 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="4"/>
@@ -3577,45 +3628,45 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K8" s="2"/>
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>359</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="2"/>
@@ -3623,15 +3674,15 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="I12" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K12" s="2"/>
       <c r="AF12" s="10"/>
@@ -3765,7 +3816,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -3810,7 +3861,7 @@
         <v>193</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>199</v>
@@ -3826,10 +3877,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>47</v>
@@ -3845,16 +3896,16 @@
         <v>92</v>
       </c>
       <c r="I2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" t="s">
         <v>248</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>249</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>93</v>
@@ -3865,13 +3916,13 @@
         <v>89</v>
       </c>
       <c r="N3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O3" t="s">
         <v>189</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>72</v>
@@ -3882,7 +3933,7 @@
         <v>166</v>
       </c>
       <c r="N4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="S4" s="5" t="s">
@@ -3902,13 +3953,13 @@
         <v>190</v>
       </c>
       <c r="N6" t="s">
+        <v>239</v>
+      </c>
+      <c r="O6" t="s">
         <v>240</v>
       </c>
-      <c r="O6" t="s">
-        <v>241</v>
-      </c>
       <c r="Q6" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S6" s="5" t="s">
         <v>72</v>
@@ -3930,10 +3981,10 @@
         <v>201</v>
       </c>
       <c r="V8" t="s">
+        <v>264</v>
+      </c>
+      <c r="W8" t="s">
         <v>265</v>
-      </c>
-      <c r="W8" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -3941,7 +3992,7 @@
         <v>27</v>
       </c>
       <c r="O9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P9" t="s">
         <v>204</v>
@@ -3949,10 +4000,10 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3999,7 +4050,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -4032,7 +4083,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>23</v>
@@ -4068,7 +4119,7 @@
         <v>116</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>117</v>
@@ -4086,48 +4137,48 @@
         <v>132</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
         <v>53</v>
@@ -4136,37 +4187,37 @@
         <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" t="s">
         <v>248</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>249</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>250</v>
-      </c>
-      <c r="O2" t="s">
-        <v>251</v>
       </c>
       <c r="P2">
         <v>9898989898</v>
       </c>
       <c r="Q2" t="s">
+        <v>315</v>
+      </c>
+      <c r="R2" t="s">
         <v>316</v>
-      </c>
-      <c r="R2" t="s">
-        <v>317</v>
       </c>
       <c r="S2" s="27">
         <v>45198</v>
       </c>
       <c r="X2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI2">
         <v>10002105</v>
@@ -4178,7 +4229,7 @@
         <v>808</v>
       </c>
       <c r="AL2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM2">
         <v>50</v>
@@ -4187,10 +4238,10 @@
         <v>39</v>
       </c>
       <c r="AO2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP2" t="s">
         <v>338</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>339</v>
       </c>
       <c r="AS2" s="27">
         <v>32881</v>
@@ -4198,7 +4249,7 @@
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
         <v>53</v>
@@ -4207,22 +4258,22 @@
         <v>73</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" t="s">
         <v>249</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>250</v>
-      </c>
-      <c r="O3" t="s">
-        <v>251</v>
       </c>
       <c r="P3">
         <v>9898989898</v>
@@ -4231,10 +4282,10 @@
         <v>400002</v>
       </c>
       <c r="AQ3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AT3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AU3" t="s">
         <v>89</v>
@@ -4384,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT35"/>
+  <dimension ref="A1:AT39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AT35" sqref="AT35"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,7 +4488,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>199</v>
@@ -4464,7 +4515,7 @@
         <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>200</v>
@@ -4491,19 +4542,19 @@
         <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>64</v>
@@ -4539,19 +4590,19 @@
         <v>26</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>26</v>
@@ -4562,13 +4613,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>47</v>
@@ -4596,16 +4647,16 @@
         <v>92</v>
       </c>
       <c r="T2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U2" t="s">
         <v>248</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>249</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>93</v>
@@ -4617,7 +4668,7 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AR2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -4628,13 +4679,13 @@
         <v>204</v>
       </c>
       <c r="AE3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH3" t="s">
         <v>95</v>
@@ -4651,12 +4702,12 @@
         <v>204</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4675,7 +4726,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="7"/>
       <c r="AK5" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL5" s="7" t="s">
         <v>101</v>
@@ -4686,13 +4737,13 @@
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>204</v>
       </c>
       <c r="AJ6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -4768,7 +4819,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4880,10 +4931,10 @@
         <v>144</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
@@ -4922,16 +4973,16 @@
         <v>92</v>
       </c>
       <c r="T16" t="s">
+        <v>243</v>
+      </c>
+      <c r="U16" t="s">
         <v>244</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>245</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>93</v>
@@ -4948,10 +4999,10 @@
         <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="9" t="s">
@@ -5071,7 +5122,7 @@
         <v>204</v>
       </c>
       <c r="AE19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG19" s="5"/>
       <c r="AI19" s="5" t="s">
@@ -5086,7 +5137,7 @@
         <v>204</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -5097,7 +5148,7 @@
         <v>204</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R21" t="s">
         <v>46</v>
@@ -5128,13 +5179,13 @@
         <v>201</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>204</v>
       </c>
       <c r="Q23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -5144,58 +5195,58 @@
       <c r="M24" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>206</v>
+      <c r="N24" t="s">
+        <v>375</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>204</v>
       </c>
       <c r="AO25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AP25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AQ25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>204</v>
       </c>
       <c r="AE26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>204</v>
       </c>
       <c r="AE27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>74</v>
@@ -5215,19 +5266,19 @@
         <v>45</v>
       </c>
       <c r="T28" t="s">
+        <v>243</v>
+      </c>
+      <c r="U28" t="s">
         <v>244</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>245</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="X28" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
@@ -5239,7 +5290,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
@@ -5260,16 +5311,16 @@
         <v>115</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>204</v>
@@ -5277,27 +5328,27 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>204</v>
       </c>
       <c r="T30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>47</v>
@@ -5312,16 +5363,16 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>47</v>
@@ -5338,16 +5389,16 @@
         <v>73</v>
       </c>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC32" s="25" t="s">
         <v>273</v>
-      </c>
-      <c r="AC32" s="25" t="s">
-        <v>274</v>
       </c>
       <c r="AD32" s="26">
         <v>4</v>
@@ -5357,29 +5408,29 @@
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AS34" t="s">
+        <v>388</v>
+      </c>
+      <c r="AT34" t="s">
         <v>389</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="10"/>
       <c r="O35" s="5"/>
@@ -5390,13 +5441,88 @@
         <v>46</v>
       </c>
       <c r="AC35" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="O36" s="5"/>
+      <c r="AC36" s="28"/>
+      <c r="AE36" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>391</v>
       </c>
-      <c r="AJ35" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>390</v>
+      <c r="AE37" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI37" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R38" t="s">
+        <v>92</v>
+      </c>
+      <c r="S38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T38" t="s">
+        <v>393</v>
+      </c>
+      <c r="U38" t="s">
+        <v>394</v>
+      </c>
+      <c r="V38" t="s">
+        <v>396</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO39" s="30" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5428,9 +5554,12 @@
     <hyperlink ref="B11" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
     <hyperlink ref="B15" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
     <hyperlink ref="C35" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
+    <hyperlink ref="B38" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C38" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D38" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -5478,7 +5607,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>199</v>
@@ -5487,22 +5616,22 @@
         <v>205</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>
@@ -5511,7 +5640,7 @@
         <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>200</v>
@@ -5538,7 +5667,7 @@
         <v>8</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>18</v>
@@ -5588,10 +5717,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
@@ -5620,16 +5749,16 @@
         <v>92</v>
       </c>
       <c r="V2" t="s">
+        <v>247</v>
+      </c>
+      <c r="W2" t="s">
         <v>248</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>249</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>93</v>
@@ -5637,7 +5766,7 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>204</v>
@@ -5649,13 +5778,13 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="AA3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB3" t="s">
         <v>191</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AD3" t="s">
         <v>95</v>
@@ -5664,7 +5793,7 @@
         <v>72</v>
       </c>
       <c r="AK3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -5672,7 +5801,7 @@
         <v>94</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -5700,16 +5829,16 @@
         <v>92</v>
       </c>
       <c r="V6" t="s">
+        <v>243</v>
+      </c>
+      <c r="W6" t="s">
         <v>244</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>245</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>93</v>
@@ -5757,7 +5886,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5808,7 +5937,7 @@
         <v>144</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
@@ -5844,16 +5973,16 @@
         <v>92</v>
       </c>
       <c r="V12" t="s">
+        <v>243</v>
+      </c>
+      <c r="W12" t="s">
         <v>244</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>245</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="Z12" s="5" t="s">
         <v>93</v>
@@ -5864,14 +5993,14 @@
         <v>166</v>
       </c>
       <c r="AA13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC13" s="5"/>
       <c r="AE13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="AK13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -5879,7 +6008,7 @@
         <v>178</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -5887,7 +6016,7 @@
         <v>186</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T15" t="s">
         <v>46</v>
@@ -5915,10 +6044,10 @@
         <v>201</v>
       </c>
       <c r="H17" t="s">
+        <v>264</v>
+      </c>
+      <c r="S17" t="s">
         <v>265</v>
-      </c>
-      <c r="S17" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
@@ -5935,32 +6064,32 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="10"/>
       <c r="O20" s="5"/>
@@ -5971,82 +6100,82 @@
         <v>46</v>
       </c>
       <c r="AJ20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" t="s">
+        <v>236</v>
+      </c>
+      <c r="K22" t="s">
+        <v>236</v>
+      </c>
+      <c r="L22" t="s">
         <v>293</v>
-      </c>
-      <c r="J22" t="s">
-        <v>237</v>
-      </c>
-      <c r="K22" t="s">
-        <v>237</v>
-      </c>
-      <c r="L22" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
@@ -6054,16 +6183,16 @@
         <v>89</v>
       </c>
       <c r="AK27" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL27" t="s">
         <v>238</v>
       </c>
-      <c r="AL27" t="s">
-        <v>239</v>
-      </c>
       <c r="AM27" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AN27" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AO27" s="5" t="s">
         <v>72</v>
@@ -6071,16 +6200,16 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>47</v>
@@ -6115,7 +6244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
@@ -6153,7 +6282,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -6245,10 +6374,10 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>47</v>
@@ -6278,7 +6407,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -6310,7 +6439,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="4"/>
@@ -6350,7 +6479,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -6364,7 +6493,7 @@
         <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="105" x14ac:dyDescent="0.25">
@@ -6462,10 +6591,10 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
@@ -6591,14 +6720,14 @@
         <v>50</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -6619,7 +6748,7 @@
         <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W3" s="5"/>
     </row>
@@ -6628,16 +6757,16 @@
         <v>89</v>
       </c>
       <c r="S4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>72</v>
       </c>
       <c r="V4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -6645,7 +6774,7 @@
         <v>94</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -6659,16 +6788,16 @@
         <v>92</v>
       </c>
       <c r="H6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" t="s">
         <v>244</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>245</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>93</v>
@@ -6688,16 +6817,16 @@
         <v>92</v>
       </c>
       <c r="H7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" t="s">
         <v>248</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>249</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>93</v>
@@ -6725,7 +6854,7 @@
         <v>162</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>165</v>
@@ -6994,10 +7123,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>47</v>
@@ -7021,13 +7150,13 @@
         <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -7125,7 +7254,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>199</v>
@@ -7134,7 +7263,7 @@
         <v>200</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
@@ -7169,10 +7298,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>47</v>
@@ -7187,16 +7316,16 @@
         <v>92</v>
       </c>
       <c r="H2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" t="s">
         <v>248</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>249</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>93</v>
@@ -7211,13 +7340,13 @@
         <v>89</v>
       </c>
       <c r="Q3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R3" t="s">
         <v>238</v>
       </c>
-      <c r="R3" t="s">
-        <v>239</v>
-      </c>
       <c r="S3" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T3" t="s">
         <v>95</v>
@@ -7231,7 +7360,7 @@
         <v>94</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7268,7 +7397,7 @@
       </c>
       <c r="K6" s="5"/>
       <c r="Q6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -7282,16 +7411,16 @@
         <v>92</v>
       </c>
       <c r="H7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" t="s">
         <v>244</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>245</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>93</v>
@@ -7306,7 +7435,7 @@
         <v>166</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="5" t="s">
@@ -7321,10 +7450,10 @@
         <v>201</v>
       </c>
       <c r="N9" t="s">
+        <v>264</v>
+      </c>
+      <c r="O9" t="s">
         <v>265</v>
-      </c>
-      <c r="O9" t="s">
-        <v>266</v>
       </c>
       <c r="P9" t="s">
         <v>201</v>
@@ -7332,28 +7461,28 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
       </c>
       <c r="N10" t="s">
+        <v>264</v>
+      </c>
+      <c r="O10" t="s">
         <v>265</v>
-      </c>
-      <c r="O10" t="s">
-        <v>266</v>
       </c>
       <c r="P10" t="s">
         <v>201</v>
       </c>
       <c r="Q10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R10" t="s">
         <v>191</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7421,13 +7550,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>47</v>
@@ -7443,7 +7572,7 @@
         <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>72</v>
@@ -7457,7 +7586,7 @@
         <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
@@ -7527,7 +7656,7 @@
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>199</v>
@@ -7560,13 +7689,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>47</v>
@@ -7596,7 +7725,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4">
@@ -7616,13 +7745,13 @@
         <v>168</v>
       </c>
       <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
         <v>240</v>
       </c>
-      <c r="G5" t="s">
-        <v>241</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K5" t="s">
         <v>98</v>
@@ -7636,13 +7765,13 @@
         <v>89</v>
       </c>
       <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
         <v>240</v>
       </c>
-      <c r="G6" t="s">
-        <v>241</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -7653,10 +7782,10 @@
         <v>201</v>
       </c>
       <c r="M7" t="s">
+        <v>264</v>
+      </c>
+      <c r="N7" t="s">
         <v>265</v>
-      </c>
-      <c r="N7" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD0317D-B141-4482-B217-5271EFBD66BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098274AC-6426-4FC1-92D6-EA3EF1DF5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28770" windowHeight="14655" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="420">
   <si>
     <t>UserName</t>
   </si>
@@ -1274,6 +1274,57 @@
   <si>
     <t>4DU95D85Y5929Y53T88D</t>
   </si>
+  <si>
+    <t>SKU-10002926 -2QTY</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Kastanienallee 53</t>
+  </si>
+  <si>
+    <t>Brinkum</t>
+  </si>
+  <si>
+    <t>26835</t>
+  </si>
+  <si>
+    <t>Europe_Germany-GuestAddress</t>
+  </si>
+  <si>
+    <t>Europe_English-GuestAddress</t>
+  </si>
+  <si>
+    <t>677 Parisi</t>
+  </si>
+  <si>
+    <t>Bonifacio</t>
+  </si>
+  <si>
+    <t>20169</t>
+  </si>
+  <si>
+    <t>Corse-du-Sud</t>
+  </si>
+  <si>
+    <t>SKU-10003324 -2QTY</t>
+  </si>
+  <si>
+    <t>Fairview® 40 Travel Pack</t>
+  </si>
+  <si>
+    <t>Night Jungle Blue</t>
+  </si>
+  <si>
+    <t>Renn™ 50</t>
+  </si>
+  <si>
+    <t>Cascade Blue/Melon Orange</t>
+  </si>
+  <si>
+    <t>SKU-10005861 -2QTY</t>
+  </si>
 </sst>
 </file>
 
@@ -1282,7 +1333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,6 +1443,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1426,7 +1497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1470,6 +1541,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4435,10 +4510,12 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT39"/>
+  <dimension ref="A1:AT44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5470,7 +5547,7 @@
     </row>
     <row r="37" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="AE37" s="29" t="s">
         <v>397</v>
@@ -5479,49 +5556,161 @@
         <v>398</v>
       </c>
       <c r="AI37" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE38" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI38" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE39" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF39" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI39" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE40" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF40" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI40" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>392</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R41" t="s">
         <v>92</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S41" t="s">
         <v>46</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T41" t="s">
         <v>393</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U41" t="s">
         <v>394</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V41" t="s">
         <v>396</v>
       </c>
-      <c r="W38" s="5" t="s">
+      <c r="W41" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="X38" s="5" t="s">
+      <c r="X41" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R42" t="s">
+        <v>92</v>
+      </c>
+      <c r="S42" t="s">
+        <v>46</v>
+      </c>
+      <c r="T42" t="s">
+        <v>405</v>
+      </c>
+      <c r="U42" t="s">
+        <v>406</v>
+      </c>
+      <c r="V42" t="s">
+        <v>404</v>
+      </c>
+      <c r="W42" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>409</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R43" t="s">
+        <v>92</v>
+      </c>
+      <c r="S43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T43" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="U43" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="V43" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="W43" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>401</v>
       </c>
-      <c r="AO39" s="30" t="s">
+      <c r="AO44" s="30" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5554,12 +5743,18 @@
     <hyperlink ref="B11" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
     <hyperlink ref="B15" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
     <hyperlink ref="C35" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
-    <hyperlink ref="B38" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
-    <hyperlink ref="C38" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
-    <hyperlink ref="D38" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B41" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C41" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D41" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B42" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
+    <hyperlink ref="C42" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
+    <hyperlink ref="D42" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
+    <hyperlink ref="B43" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
+    <hyperlink ref="C43" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
+    <hyperlink ref="D43" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098274AC-6426-4FC1-92D6-EA3EF1DF5BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C45C73-4095-462F-8305-0EDF3BD531B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28770" windowHeight="14655" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="427">
   <si>
     <t>UserName</t>
   </si>
@@ -1324,6 +1324,27 @@
   </si>
   <si>
     <t>SKU-10005861 -2QTY</t>
+  </si>
+  <si>
+    <t>SKU-10005861 -3QTY</t>
+  </si>
+  <si>
+    <t>SKU-10003324 -3QTY</t>
+  </si>
+  <si>
+    <t>Sweden-GuestAddress</t>
+  </si>
+  <si>
+    <t>Gamla Svedalavägen 1</t>
+  </si>
+  <si>
+    <t>Mariestad</t>
+  </si>
+  <si>
+    <t>54288</t>
+  </si>
+  <si>
+    <t>9999998989</t>
   </si>
 </sst>
 </file>
@@ -4510,12 +4531,12 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT44"/>
+  <dimension ref="A1:AT47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5601,79 +5622,37 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>392</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R41" t="s">
-        <v>92</v>
-      </c>
-      <c r="S41" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41" t="s">
-        <v>393</v>
-      </c>
-      <c r="U41" t="s">
-        <v>394</v>
-      </c>
-      <c r="V41" t="s">
-        <v>396</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="AE41" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF41" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI41" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>408</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R42" t="s">
-        <v>92</v>
-      </c>
-      <c r="S42" t="s">
-        <v>46</v>
-      </c>
-      <c r="T42" t="s">
-        <v>405</v>
-      </c>
-      <c r="U42" t="s">
-        <v>406</v>
-      </c>
-      <c r="V42" t="s">
-        <v>404</v>
-      </c>
-      <c r="W42" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>93</v>
+        <v>421</v>
+      </c>
+      <c r="AE42" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF42" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI42" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>278</v>
@@ -5690,28 +5669,130 @@
       <c r="S43" t="s">
         <v>46</v>
       </c>
-      <c r="T43" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="U43" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="V43" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="W43" s="31" t="s">
-        <v>412</v>
+      <c r="T43" t="s">
+        <v>393</v>
+      </c>
+      <c r="U43" t="s">
+        <v>394</v>
+      </c>
+      <c r="V43" t="s">
+        <v>396</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="X43" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R44" t="s">
+        <v>92</v>
+      </c>
+      <c r="S44" t="s">
+        <v>46</v>
+      </c>
+      <c r="T44" t="s">
+        <v>405</v>
+      </c>
+      <c r="U44" t="s">
+        <v>406</v>
+      </c>
+      <c r="V44" t="s">
+        <v>404</v>
+      </c>
+      <c r="W44" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>409</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R45" t="s">
+        <v>92</v>
+      </c>
+      <c r="S45" t="s">
+        <v>46</v>
+      </c>
+      <c r="T45" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="U45" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="V45" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="W45" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>401</v>
       </c>
-      <c r="AO44" s="30" t="s">
+      <c r="AO46" s="30" t="s">
         <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R47" t="s">
+        <v>92</v>
+      </c>
+      <c r="S47" t="s">
+        <v>46</v>
+      </c>
+      <c r="T47" t="s">
+        <v>423</v>
+      </c>
+      <c r="U47" t="s">
+        <v>424</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -5743,18 +5824,21 @@
     <hyperlink ref="B11" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
     <hyperlink ref="B15" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
     <hyperlink ref="C35" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
-    <hyperlink ref="B41" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
-    <hyperlink ref="C41" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
-    <hyperlink ref="D41" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
-    <hyperlink ref="B42" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
-    <hyperlink ref="C42" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
-    <hyperlink ref="D42" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
-    <hyperlink ref="B43" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
-    <hyperlink ref="C43" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
-    <hyperlink ref="D43" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
+    <hyperlink ref="B43" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C43" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D43" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B44" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
+    <hyperlink ref="C44" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
+    <hyperlink ref="D44" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
+    <hyperlink ref="B45" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
+    <hyperlink ref="C45" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
+    <hyperlink ref="D45" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
+    <hyperlink ref="B47" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C47" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D47" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,35 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C45C73-4095-462F-8305-0EDF3BD531B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54E516B-1462-4416-AE1E-FB8DB462B8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DataSet" sheetId="1" r:id="rId1"/>
-    <sheet name="Header" sheetId="2" r:id="rId2"/>
-    <sheet name="CreateAccount" sheetId="3" r:id="rId3"/>
-    <sheet name="Newsletters" sheetId="22" r:id="rId4"/>
-    <sheet name="My AccountPage" sheetId="5" r:id="rId5"/>
-    <sheet name="GiftRegistry" sheetId="6" r:id="rId6"/>
-    <sheet name="MyFavorites" sheetId="7" r:id="rId7"/>
-    <sheet name="ShareWhishList" sheetId="8" r:id="rId8"/>
-    <sheet name="Whishlist" sheetId="14" r:id="rId9"/>
-    <sheet name="Country" sheetId="15" r:id="rId10"/>
-    <sheet name="Compare_Products" sheetId="18" r:id="rId11"/>
-    <sheet name="Minicart" sheetId="10" r:id="rId12"/>
-    <sheet name="Review" sheetId="11" r:id="rId13"/>
-    <sheet name="Search" sheetId="19" r:id="rId14"/>
-    <sheet name="WebLinks" sheetId="20" r:id="rId15"/>
-    <sheet name="Address Book" sheetId="12" r:id="rId16"/>
-    <sheet name="OutofStock" sheetId="13" r:id="rId17"/>
-    <sheet name="Footer Links" sheetId="23" r:id="rId18"/>
-    <sheet name="Warrenty" sheetId="24" r:id="rId19"/>
-    <sheet name="PDP" sheetId="16" r:id="rId20"/>
-    <sheet name="Forms" sheetId="25" r:id="rId21"/>
-    <sheet name="RMA" sheetId="17" r:id="rId22"/>
-    <sheet name="Checkout payments" sheetId="9" r:id="rId23"/>
-    <sheet name="Giftcard Payments" sheetId="21" r:id="rId24"/>
+    <sheet name="Osprey_E2E" sheetId="26" r:id="rId1"/>
+    <sheet name="DataSet" sheetId="1" r:id="rId2"/>
+    <sheet name="Header" sheetId="2" r:id="rId3"/>
+    <sheet name="CreateAccount" sheetId="3" r:id="rId4"/>
+    <sheet name="Newsletters" sheetId="22" r:id="rId5"/>
+    <sheet name="My AccountPage" sheetId="5" r:id="rId6"/>
+    <sheet name="GiftRegistry" sheetId="6" r:id="rId7"/>
+    <sheet name="MyFavorites" sheetId="7" r:id="rId8"/>
+    <sheet name="ShareWhishList" sheetId="8" r:id="rId9"/>
+    <sheet name="Whishlist" sheetId="14" r:id="rId10"/>
+    <sheet name="Country" sheetId="15" r:id="rId11"/>
+    <sheet name="Compare_Products" sheetId="18" r:id="rId12"/>
+    <sheet name="Minicart" sheetId="10" r:id="rId13"/>
+    <sheet name="Review" sheetId="11" r:id="rId14"/>
+    <sheet name="Search" sheetId="19" r:id="rId15"/>
+    <sheet name="WebLinks" sheetId="20" r:id="rId16"/>
+    <sheet name="Address Book" sheetId="12" r:id="rId17"/>
+    <sheet name="OutofStock" sheetId="13" r:id="rId18"/>
+    <sheet name="Footer Links" sheetId="23" r:id="rId19"/>
+    <sheet name="Warrenty" sheetId="24" r:id="rId20"/>
+    <sheet name="PDP" sheetId="16" r:id="rId21"/>
+    <sheet name="Forms" sheetId="25" r:id="rId22"/>
+    <sheet name="RMA" sheetId="17" r:id="rId23"/>
+    <sheet name="Checkout payments" sheetId="9" r:id="rId24"/>
+    <sheet name="Giftcard Payments" sheetId="21" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="475">
   <si>
     <t>UserName</t>
   </si>
@@ -1335,16 +1336,160 @@
     <t>Sweden-GuestAddress</t>
   </si>
   <si>
-    <t>Gamla Svedalavägen 1</t>
-  </si>
-  <si>
-    <t>Mariestad</t>
-  </si>
-  <si>
-    <t>54288</t>
-  </si>
-  <si>
     <t>9999998989</t>
+  </si>
+  <si>
+    <t>SKU-10004993 -3QTY</t>
+  </si>
+  <si>
+    <t>Ovansjovagen 303</t>
+  </si>
+  <si>
+    <t>Kungsgarden</t>
+  </si>
+  <si>
+    <t>812 93</t>
+  </si>
+  <si>
+    <t>SKU-10004966 -3QTY</t>
+  </si>
+  <si>
+    <t>Waterfront Blue</t>
+  </si>
+  <si>
+    <t>Blekinge län</t>
+  </si>
+  <si>
+    <t>Ultralight Zip Organiser</t>
+  </si>
+  <si>
+    <t>8MD76V77H4856V66R23A</t>
+  </si>
+  <si>
+    <t>Full Gift card</t>
+  </si>
+  <si>
+    <t>6YE34V88M4965T43K85C</t>
+  </si>
+  <si>
+    <t>Gani@123</t>
+  </si>
+  <si>
+    <t>gnarra@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>Test qa - 84/4 Great King Street, Edinburgh, MIDLOTHIAN, EH3 6QU</t>
+  </si>
+  <si>
+    <t>PP1000060530</t>
+  </si>
+  <si>
+    <t>4UV97H57Y7372R77A97T</t>
+  </si>
+  <si>
+    <t>QATESTPROD</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Poco® with Raincover</t>
+  </si>
+  <si>
+    <t>Poco® Raincover</t>
+  </si>
+  <si>
+    <t>PR60NH</t>
+  </si>
+  <si>
+    <t>Chorley</t>
+  </si>
+  <si>
+    <t>71 Worthy Street</t>
+  </si>
+  <si>
+    <t>p6@2wH0*</t>
+  </si>
+  <si>
+    <t>sb-hhb43531366390@personal.example.com</t>
+  </si>
+  <si>
+    <t>avayugundla+22@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>Standard Delivery (1-3 Days)</t>
+  </si>
+  <si>
+    <t>10004966- 2</t>
+  </si>
+  <si>
+    <t>Stealth Wallet</t>
+  </si>
+  <si>
+    <t>10004999 - 2</t>
+  </si>
+  <si>
+    <t>10005000 - 3</t>
+  </si>
+  <si>
+    <t>10004993- 2</t>
+  </si>
+  <si>
+    <t>10004993- 3</t>
+  </si>
+  <si>
+    <t>Farpoint® 40 Travel Pack</t>
+  </si>
+  <si>
+    <t>10003675-2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>PadLock</t>
+  </si>
+  <si>
+    <t>10004998 -10</t>
+  </si>
+  <si>
+    <t>10004998 -1</t>
+  </si>
+  <si>
+    <t>Daylite™ Waist</t>
+  </si>
+  <si>
+    <t>10002928 - 1</t>
+  </si>
+  <si>
+    <t>Blue Spikemoss</t>
+  </si>
+  <si>
+    <t>Wildwater Dry Bag 25</t>
+  </si>
+  <si>
+    <t>skasarla+12@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>newuseraddress</t>
+  </si>
+  <si>
+    <t>Den Address</t>
+  </si>
+  <si>
+    <t>Prod Products</t>
+  </si>
+  <si>
+    <t>Harevaenget 21</t>
+  </si>
+  <si>
+    <t>Syddanmark</t>
+  </si>
+  <si>
+    <t>Nyborg</t>
+  </si>
+  <si>
+    <t>5800</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,6 +1629,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1518,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1566,6 +1719,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1846,26 +2000,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB898B7-F8AD-4A5F-BE2F-C5B4C0E6C103}">
+  <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="11" customWidth="1"/>
+    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.42578125" customWidth="1"/>
+    <col min="45" max="45" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1873,151 +2042,1490 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>376</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" t="s">
+        <v>247</v>
+      </c>
+      <c r="V2" t="s">
+        <v>248</v>
+      </c>
+      <c r="W2" t="s">
+        <v>249</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AT2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>469</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="K3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" t="s">
+        <v>471</v>
+      </c>
+      <c r="V3" t="s">
+        <v>473</v>
+      </c>
+      <c r="W3" t="s">
+        <v>472</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="J4" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="9"/>
-      <c r="E22" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" t="s">
+        <v>247</v>
+      </c>
+      <c r="V4" t="s">
+        <v>248</v>
+      </c>
+      <c r="W4" t="s">
+        <v>249</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AT4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>464</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="AF6" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>462</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="AF7" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>461</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="AF8" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>458</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="AF9" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>456</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="AF10" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>455</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="AF11" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>454</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="AF12" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>453</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="AF13" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="AG13" s="10"/>
+      <c r="AH13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI13" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>451</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="AF14" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG14" s="10"/>
+      <c r="AH14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
+      <c r="N16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="2"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="7"/>
+      <c r="AM16" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="X19" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO19">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" t="s">
+        <v>45</v>
+      </c>
+      <c r="T22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" t="s">
+        <v>73</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" t="s">
+        <v>176</v>
+      </c>
+      <c r="W23" t="s">
+        <v>175</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>447</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="Y25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s">
+        <v>92</v>
+      </c>
+      <c r="U27" t="s">
+        <v>446</v>
+      </c>
+      <c r="V27" t="s">
+        <v>445</v>
+      </c>
+      <c r="W27" t="s">
+        <v>316</v>
+      </c>
+      <c r="X27" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" t="s">
+        <v>92</v>
+      </c>
+      <c r="U28" t="s">
+        <v>152</v>
+      </c>
+      <c r="V28" t="s">
+        <v>153</v>
+      </c>
+      <c r="W28" t="s">
+        <v>154</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="7"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29" t="s">
+        <v>158</v>
+      </c>
+      <c r="V29" t="s">
+        <v>159</v>
+      </c>
+      <c r="W29" t="s">
+        <v>160</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF30" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG30" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI30" s="5"/>
+      <c r="AK30" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S32" t="s">
+        <v>46</v>
+      </c>
+      <c r="T32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" t="s">
+        <v>264</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>230</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>439</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>253</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="N39" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T39" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" t="s">
+        <v>243</v>
+      </c>
+      <c r="V39" t="s">
+        <v>244</v>
+      </c>
+      <c r="W39" t="s">
+        <v>245</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5">
+        <v>888888</v>
+      </c>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>123</v>
+      </c>
+      <c r="AP39" s="7"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="L40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="U41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="N43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="S43" t="s">
+        <v>171</v>
+      </c>
+      <c r="T43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD43" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE43" s="26">
+        <v>4</v>
+      </c>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="26"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" t="s">
+        <v>432</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{4C9FDD53-8CF6-4A1E-95B9-EF45FD04C678}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{988153DA-4C7F-4E94-8BE8-0DD9931BAD37}"/>
+    <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{0CF42103-522A-4081-86EE-96C4D820CDE6}"/>
+    <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{E526016C-54AA-411B-A691-7BAB8AB9D9FD}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{5BEF175C-8568-4877-A1F2-5279887261D7}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{7360C1AA-AEFB-46C3-853D-764E45594F6A}"/>
+    <hyperlink ref="C26" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{29A5ACF3-3F2E-44A7-9A0A-2EE8BF006B55}"/>
+    <hyperlink ref="F26" r:id="rId8" xr:uid="{95E71A71-F2E2-4BC5-8B88-1B4C30F9F198}"/>
+    <hyperlink ref="B28" r:id="rId9" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{191A3A40-6322-47F9-A472-42727476E676}"/>
+    <hyperlink ref="C28" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{35CA3724-5B20-4215-A7D8-8278AED7B63B}"/>
+    <hyperlink ref="B29" r:id="rId11" xr:uid="{F80ED036-D37D-4D25-9E84-167E827AEACC}"/>
+    <hyperlink ref="C29" r:id="rId12" xr:uid="{39E86C17-AB6B-4736-8FD8-51D664482BDC}"/>
+    <hyperlink ref="C39" r:id="rId13" xr:uid="{BB71BF80-5A94-4DF5-A619-592504F030A5}"/>
+    <hyperlink ref="D2" r:id="rId14" display="testersemail.278@gmail.com" xr:uid="{762E3771-1A14-4ADF-B233-F706CC67585C}"/>
+    <hyperlink ref="M40" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{661FBEFB-D442-44E4-9A42-65D24FE8370F}"/>
+    <hyperlink ref="B42" r:id="rId16" xr:uid="{2CEE2BBC-471E-4476-B76A-3F7233050B89}"/>
+    <hyperlink ref="C42" r:id="rId17" xr:uid="{7922502D-4C00-44E1-A6F4-71BA0DC39C3E}"/>
+    <hyperlink ref="D42" r:id="rId18" xr:uid="{9D66CAC1-5E53-4022-8016-B75952B461B9}"/>
+    <hyperlink ref="E42" r:id="rId19" xr:uid="{B938F466-5E31-4018-876F-6A28D8433DCB}"/>
+    <hyperlink ref="E43" r:id="rId20" xr:uid="{FD64FD41-4B71-430A-9E87-E770BDBC1DE8}"/>
+    <hyperlink ref="B43" r:id="rId21" xr:uid="{5430F070-68FA-45BC-A7D7-FD317B6AB933}"/>
+    <hyperlink ref="C43" r:id="rId22" xr:uid="{1415DD0C-4B90-4CB8-BE39-94246EA7E5A0}"/>
+    <hyperlink ref="D43" r:id="rId23" xr:uid="{A0DAC1F1-32A0-464B-9F05-699659069EBF}"/>
+    <hyperlink ref="B22" r:id="rId24" xr:uid="{8D6727B2-1421-40EB-A9FF-43ACDF93F9F2}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{80B92F45-F944-4987-B387-B5FFF81D060A}"/>
+    <hyperlink ref="C22" r:id="rId26" xr:uid="{F850A62A-C089-4319-BFF8-B73B40867433}"/>
+    <hyperlink ref="AF5" r:id="rId27" display="https://mcloud-na-preprod.osprey.com/gb/osprey-wildwater-dry-bag-25-f23" xr:uid="{B5863964-95C1-446D-B803-1B9817B08AF9}"/>
+    <hyperlink ref="E4" r:id="rId28" xr:uid="{4D82D90C-6A09-4AC3-A8C8-5F7819640F35}"/>
+    <hyperlink ref="F4" r:id="rId29" display="Testers@278" xr:uid="{38B6B8B2-7D9E-49C1-995B-96D60F02BCAC}"/>
+    <hyperlink ref="B4" r:id="rId30" xr:uid="{A856926B-E4BE-424C-AA62-B5630885F674}"/>
+    <hyperlink ref="F42" r:id="rId31" xr:uid="{A128FC83-D12D-41E4-B5D0-0CD0EECE675B}"/>
+    <hyperlink ref="AF30" r:id="rId32" display="https://mcloud-na-preprod.osprey.com/gb/poco-child-carrier-raincover-2021" xr:uid="{AC7094B1-806E-4D9E-9038-9F3AAE7BEB1C}"/>
+    <hyperlink ref="B3" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{088F18E1-F7B7-4F33-943D-3DE88D7E17B1}"/>
+    <hyperlink ref="C3" r:id="rId34" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{4443F290-9645-4F18-8CF3-41BE5F7A1452}"/>
+    <hyperlink ref="D3" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{EDE37AC4-39BE-4B7A-A8EB-1AF6D11A8ECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>171</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M7" t="s">
+        <v>264</v>
+      </c>
+      <c r="N7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
@@ -2115,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
@@ -2283,7 +3791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
@@ -2483,7 +3991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -2714,7 +4222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2802,7 +4310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2849,7 +4357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -3094,7 +4602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
@@ -3276,7 +4784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
@@ -3402,7 +4910,179 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="K3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+      <c r="E22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -3546,11 +5226,2695 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:Y10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" t="s">
+        <v>239</v>
+      </c>
+      <c r="O6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="T7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="U8" t="s">
+        <v>201</v>
+      </c>
+      <c r="V8" t="s">
+        <v>264</v>
+      </c>
+      <c r="W8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Testers@278" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1300-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId4" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1300-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:AU3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P2">
+        <v>9898989898</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>315</v>
+      </c>
+      <c r="R2" t="s">
+        <v>316</v>
+      </c>
+      <c r="S2" s="27">
+        <v>45198</v>
+      </c>
+      <c r="X2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI2">
+        <v>10002105</v>
+      </c>
+      <c r="AJ2">
+        <v>23456789</v>
+      </c>
+      <c r="AK2">
+        <v>808</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM2">
+        <v>50</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AS2" s="27">
+        <v>32881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L3" t="s">
+        <v>339</v>
+      </c>
+      <c r="M3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P3">
+        <v>9898989898</v>
+      </c>
+      <c r="AB3">
+        <v>400002</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-1500-000003000000}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-1500-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{00000000-0004-0000-1500-000005000000}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{00000000-0004-0000-1500-000006000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:AT49"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="11" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.42578125" customWidth="1"/>
+    <col min="43" max="43" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" t="s">
+        <v>247</v>
+      </c>
+      <c r="U2" t="s">
+        <v>248</v>
+      </c>
+      <c r="V2" t="s">
+        <v>249</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AR2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+      <c r="M5" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="2"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="7"/>
+      <c r="AK5" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM8">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="R12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" t="s">
+        <v>176</v>
+      </c>
+      <c r="V12" t="s">
+        <v>175</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" t="s">
+        <v>243</v>
+      </c>
+      <c r="U16" t="s">
+        <v>244</v>
+      </c>
+      <c r="V16" t="s">
+        <v>245</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" t="s">
+        <v>152</v>
+      </c>
+      <c r="U17" t="s">
+        <v>153</v>
+      </c>
+      <c r="V17" t="s">
+        <v>154</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="7"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" t="s">
+        <v>92</v>
+      </c>
+      <c r="T18" t="s">
+        <v>158</v>
+      </c>
+      <c r="U18" t="s">
+        <v>159</v>
+      </c>
+      <c r="V18" t="s">
+        <v>160</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N21" t="s">
+        <v>208</v>
+      </c>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N24" t="s">
+        <v>375</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="M28" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T28" t="s">
+        <v>243</v>
+      </c>
+      <c r="U28" t="s">
+        <v>244</v>
+      </c>
+      <c r="V28" t="s">
+        <v>245</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5">
+        <v>888888</v>
+      </c>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>123</v>
+      </c>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="T30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="M32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R32" t="s">
+        <v>171</v>
+      </c>
+      <c r="S32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC32" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD32" s="26">
+        <v>4</v>
+      </c>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="26"/>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE33" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>388</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="O35" s="5"/>
+      <c r="R35" t="s">
+        <v>92</v>
+      </c>
+      <c r="S35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC35" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="O36" s="5"/>
+      <c r="AC36" s="28"/>
+      <c r="AE36" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="O37" s="5"/>
+      <c r="AC37" s="28"/>
+      <c r="AE37" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI37" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE38" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI38" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE39" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI39" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE40" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF40" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI40" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE41" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF41" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI41" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE42" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF42" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI42" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE43" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF43" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI43" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE44" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF44" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI44" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R45" t="s">
+        <v>92</v>
+      </c>
+      <c r="S45" t="s">
+        <v>46</v>
+      </c>
+      <c r="T45" t="s">
+        <v>393</v>
+      </c>
+      <c r="U45" t="s">
+        <v>394</v>
+      </c>
+      <c r="V45" t="s">
+        <v>396</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R46" t="s">
+        <v>92</v>
+      </c>
+      <c r="S46" t="s">
+        <v>46</v>
+      </c>
+      <c r="T46" t="s">
+        <v>405</v>
+      </c>
+      <c r="U46" t="s">
+        <v>406</v>
+      </c>
+      <c r="V46" t="s">
+        <v>404</v>
+      </c>
+      <c r="W46" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>409</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R47" t="s">
+        <v>92</v>
+      </c>
+      <c r="S47" t="s">
+        <v>46</v>
+      </c>
+      <c r="T47" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="U47" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="V47" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="W47" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO48" s="30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R49" t="s">
+        <v>92</v>
+      </c>
+      <c r="S49" t="s">
+        <v>46</v>
+      </c>
+      <c r="T49" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="U49" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="V49" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="W49" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1600-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
+    <hyperlink ref="C15" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
+    <hyperlink ref="B17" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
+    <hyperlink ref="C17" r:id="rId11" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
+    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
+    <hyperlink ref="D2" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
+    <hyperlink ref="L29" r:id="rId16" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
+    <hyperlink ref="B31" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
+    <hyperlink ref="D31" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
+    <hyperlink ref="E31" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
+    <hyperlink ref="E32" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
+    <hyperlink ref="B32" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
+    <hyperlink ref="C32" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
+    <hyperlink ref="D32" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
+    <hyperlink ref="B11" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
+    <hyperlink ref="B15" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
+    <hyperlink ref="C35" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
+    <hyperlink ref="B45" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C45" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D45" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B46" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
+    <hyperlink ref="C46" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
+    <hyperlink ref="D46" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
+    <hyperlink ref="B47" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
+    <hyperlink ref="C47" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
+    <hyperlink ref="D47" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
+    <hyperlink ref="B49" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C49" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D49" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:AO28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" t="s">
+        <v>247</v>
+      </c>
+      <c r="W2" t="s">
+        <v>248</v>
+      </c>
+      <c r="X2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="AA3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" t="s">
+        <v>243</v>
+      </c>
+      <c r="W6" t="s">
+        <v>244</v>
+      </c>
+      <c r="X6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" t="s">
+        <v>92</v>
+      </c>
+      <c r="V12" t="s">
+        <v>243</v>
+      </c>
+      <c r="W12" t="s">
+        <v>244</v>
+      </c>
+      <c r="X12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC13" s="5"/>
+      <c r="AE13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="P15" t="s">
+        <v>208</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" t="s">
+        <v>264</v>
+      </c>
+      <c r="S17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="O20" s="5"/>
+      <c r="T20" t="s">
+        <v>92</v>
+      </c>
+      <c r="U20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" t="s">
+        <v>236</v>
+      </c>
+      <c r="K22" t="s">
+        <v>236</v>
+      </c>
+      <c r="L22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" t="s">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s">
+        <v>242</v>
+      </c>
+      <c r="M23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>283</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>374</v>
+      </c>
+      <c r="L24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK27" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM27" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN27" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO27" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" display="Testers@278" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1700-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId4" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1700-000003000000}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-1700-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-1700-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1700-000006000000}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-1700-000007000000}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{00000000-0004-0000-1700-000008000000}"/>
+    <hyperlink ref="B28" r:id="rId10" xr:uid="{00000000-0004-0000-1700-000009000000}"/>
+    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-1700-00000A000000}"/>
+    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-1700-00000B000000}"/>
+    <hyperlink ref="E28" r:id="rId13" xr:uid="{00000000-0004-0000-1700-00000C000000}"/>
+    <hyperlink ref="B9" r:id="rId14" xr:uid="{00000000-0004-0000-1700-00000D000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -3870,2656 +8234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:Y10"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K2" t="s">
-        <v>249</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" t="s">
-        <v>267</v>
-      </c>
-      <c r="O3" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-      <c r="N4" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="S4" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>190</v>
-      </c>
-      <c r="N6" t="s">
-        <v>239</v>
-      </c>
-      <c r="O6" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="T7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>201</v>
-      </c>
-      <c r="U8" t="s">
-        <v>201</v>
-      </c>
-      <c r="V8" t="s">
-        <v>264</v>
-      </c>
-      <c r="W8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" t="s">
-        <v>380</v>
-      </c>
-      <c r="P9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>379</v>
-      </c>
-      <c r="F10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" display="Testers@278" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1300-000002000000}"/>
-    <hyperlink ref="C2" r:id="rId4" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1300-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:AU3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" t="s">
-        <v>248</v>
-      </c>
-      <c r="N2" t="s">
-        <v>249</v>
-      </c>
-      <c r="O2" t="s">
-        <v>250</v>
-      </c>
-      <c r="P2">
-        <v>9898989898</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>315</v>
-      </c>
-      <c r="R2" t="s">
-        <v>316</v>
-      </c>
-      <c r="S2" s="27">
-        <v>45198</v>
-      </c>
-      <c r="X2" t="s">
-        <v>335</v>
-      </c>
-      <c r="AI2">
-        <v>10002105</v>
-      </c>
-      <c r="AJ2">
-        <v>23456789</v>
-      </c>
-      <c r="AK2">
-        <v>808</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AM2">
-        <v>50</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>338</v>
-      </c>
-      <c r="AS2" s="27">
-        <v>32881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J3" t="s">
-        <v>279</v>
-      </c>
-      <c r="L3" t="s">
-        <v>339</v>
-      </c>
-      <c r="M3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N3" t="s">
-        <v>249</v>
-      </c>
-      <c r="O3" t="s">
-        <v>250</v>
-      </c>
-      <c r="P3">
-        <v>9898989898</v>
-      </c>
-      <c r="AB3">
-        <v>400002</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>315</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:V3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-1500-000003000000}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{00000000-0004-0000-1500-000004000000}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{00000000-0004-0000-1500-000005000000}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{00000000-0004-0000-1500-000006000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="AB47" sqref="AB47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.42578125" customWidth="1"/>
-    <col min="43" max="43" width="23.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" t="s">
-        <v>247</v>
-      </c>
-      <c r="U2" t="s">
-        <v>248</v>
-      </c>
-      <c r="V2" t="s">
-        <v>249</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AR2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="9"/>
-      <c r="M5" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="2"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="7"/>
-      <c r="AK5" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>261</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM7">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM8">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM10">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="M12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" t="s">
-        <v>176</v>
-      </c>
-      <c r="V12" t="s">
-        <v>175</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R16" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" t="s">
-        <v>243</v>
-      </c>
-      <c r="U16" t="s">
-        <v>244</v>
-      </c>
-      <c r="V16" t="s">
-        <v>245</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" t="s">
-        <v>92</v>
-      </c>
-      <c r="T17" t="s">
-        <v>152</v>
-      </c>
-      <c r="U17" t="s">
-        <v>153</v>
-      </c>
-      <c r="V17" t="s">
-        <v>154</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="7"/>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" t="s">
-        <v>46</v>
-      </c>
-      <c r="S18" t="s">
-        <v>92</v>
-      </c>
-      <c r="T18" t="s">
-        <v>158</v>
-      </c>
-      <c r="U18" t="s">
-        <v>159</v>
-      </c>
-      <c r="V18" t="s">
-        <v>160</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG19" s="5"/>
-      <c r="AI19" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>178</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>186</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N21" t="s">
-        <v>208</v>
-      </c>
-      <c r="R21" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI22" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" t="s">
-        <v>264</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>203</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N24" t="s">
-        <v>375</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>230</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>253</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>255</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="M28" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S28" t="s">
-        <v>45</v>
-      </c>
-      <c r="T28" t="s">
-        <v>243</v>
-      </c>
-      <c r="U28" t="s">
-        <v>244</v>
-      </c>
-      <c r="V28" t="s">
-        <v>245</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5">
-        <v>888888</v>
-      </c>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM28" s="5">
-        <v>123</v>
-      </c>
-      <c r="AN28" s="7"/>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>260</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="T30" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>268</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="M32" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="R32" t="s">
-        <v>171</v>
-      </c>
-      <c r="S32" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC32" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD32" s="26">
-        <v>4</v>
-      </c>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="26"/>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE33" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>388</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="O35" s="5"/>
-      <c r="R35" t="s">
-        <v>92</v>
-      </c>
-      <c r="S35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC35" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>399</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="O36" s="5"/>
-      <c r="AC36" s="28"/>
-      <c r="AE36" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE37" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI37" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE38" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI38" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE39" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF39" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="AI39" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE40" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF40" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI40" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE41" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF41" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI41" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE42" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF42" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="AI42" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>392</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R43" t="s">
-        <v>92</v>
-      </c>
-      <c r="S43" t="s">
-        <v>46</v>
-      </c>
-      <c r="T43" t="s">
-        <v>393</v>
-      </c>
-      <c r="U43" t="s">
-        <v>394</v>
-      </c>
-      <c r="V43" t="s">
-        <v>396</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="X43" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>408</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R44" t="s">
-        <v>92</v>
-      </c>
-      <c r="S44" t="s">
-        <v>46</v>
-      </c>
-      <c r="T44" t="s">
-        <v>405</v>
-      </c>
-      <c r="U44" t="s">
-        <v>406</v>
-      </c>
-      <c r="V44" t="s">
-        <v>404</v>
-      </c>
-      <c r="W44" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>409</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R45" t="s">
-        <v>92</v>
-      </c>
-      <c r="S45" t="s">
-        <v>46</v>
-      </c>
-      <c r="T45" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="U45" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="V45" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="W45" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="X45" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO46" s="30" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>422</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R47" t="s">
-        <v>92</v>
-      </c>
-      <c r="S47" t="s">
-        <v>46</v>
-      </c>
-      <c r="T47" t="s">
-        <v>423</v>
-      </c>
-      <c r="U47" t="s">
-        <v>424</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1600-000002000000}"/>
-    <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
-    <hyperlink ref="C15" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
-    <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
-    <hyperlink ref="B17" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
-    <hyperlink ref="C17" r:id="rId11" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
-    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
-    <hyperlink ref="D2" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
-    <hyperlink ref="L29" r:id="rId16" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
-    <hyperlink ref="B31" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
-    <hyperlink ref="D31" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
-    <hyperlink ref="E31" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
-    <hyperlink ref="E32" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
-    <hyperlink ref="B32" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
-    <hyperlink ref="C32" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
-    <hyperlink ref="D32" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
-    <hyperlink ref="B11" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
-    <hyperlink ref="B15" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
-    <hyperlink ref="C35" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
-    <hyperlink ref="B43" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
-    <hyperlink ref="C43" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
-    <hyperlink ref="D43" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
-    <hyperlink ref="B44" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
-    <hyperlink ref="C44" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
-    <hyperlink ref="D44" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
-    <hyperlink ref="B45" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
-    <hyperlink ref="C45" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
-    <hyperlink ref="D45" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B47" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C47" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D47" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:AO28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" t="s">
-        <v>247</v>
-      </c>
-      <c r="W2" t="s">
-        <v>248</v>
-      </c>
-      <c r="X2" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="AA3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T6" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V6" t="s">
-        <v>243</v>
-      </c>
-      <c r="W6" t="s">
-        <v>244</v>
-      </c>
-      <c r="X6" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI6">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI7">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI8">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>146</v>
-      </c>
-      <c r="T12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12" t="s">
-        <v>243</v>
-      </c>
-      <c r="W12" t="s">
-        <v>244</v>
-      </c>
-      <c r="X12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC13" s="5"/>
-      <c r="AE13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF14" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P15" t="s">
-        <v>208</v>
-      </c>
-      <c r="T15" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" t="s">
-        <v>264</v>
-      </c>
-      <c r="S17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>222</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="O20" s="5"/>
-      <c r="T20" t="s">
-        <v>92</v>
-      </c>
-      <c r="U20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA21" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>292</v>
-      </c>
-      <c r="J22" t="s">
-        <v>236</v>
-      </c>
-      <c r="K22" t="s">
-        <v>236</v>
-      </c>
-      <c r="L22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J23" t="s">
-        <v>236</v>
-      </c>
-      <c r="K23" t="s">
-        <v>236</v>
-      </c>
-      <c r="L23" t="s">
-        <v>242</v>
-      </c>
-      <c r="M23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>283</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J24" t="s">
-        <v>374</v>
-      </c>
-      <c r="L24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK27" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM27" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="AN27" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO27" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="Testers@278" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1700-000002000000}"/>
-    <hyperlink ref="C2" r:id="rId4" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1700-000003000000}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-1700-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-1700-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1700-000006000000}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-1700-000007000000}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{00000000-0004-0000-1700-000008000000}"/>
-    <hyperlink ref="B28" r:id="rId10" xr:uid="{00000000-0004-0000-1700-000009000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-1700-00000A000000}"/>
-    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-1700-00000B000000}"/>
-    <hyperlink ref="E28" r:id="rId13" xr:uid="{00000000-0004-0000-1700-00000C000000}"/>
-    <hyperlink ref="B9" r:id="rId14" xr:uid="{00000000-0004-0000-1700-00000D000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
@@ -6807,7 +8522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -6899,7 +8614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W15"/>
   <sheetViews>
@@ -7162,7 +8877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W7"/>
   <sheetViews>
@@ -7466,7 +9181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
@@ -7779,7 +9494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -7885,190 +9600,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AG7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>171</v>
-      </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M7" t="s">
-        <v>264</v>
-      </c>
-      <c r="N7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54E516B-1462-4416-AE1E-FB8DB462B8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32769E0-9902-4B84-9E6C-E61FB0C074A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osprey_E2E" sheetId="26" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="477">
   <si>
     <t>UserName</t>
   </si>
@@ -1490,6 +1490,12 @@
   </si>
   <si>
     <t>5800</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Narra</t>
   </si>
 </sst>
 </file>
@@ -2003,7 +2009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB898B7-F8AD-4A5F-BE2F-C5B4C0E6C103}">
   <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -5889,10 +5895,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AT49"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7052,10 +7058,10 @@
         <v>278</v>
       </c>
       <c r="R45" t="s">
-        <v>92</v>
+        <v>475</v>
       </c>
       <c r="S45" t="s">
-        <v>46</v>
+        <v>476</v>
       </c>
       <c r="T45" t="s">
         <v>393</v>
@@ -7087,10 +7093,10 @@
         <v>278</v>
       </c>
       <c r="R46" t="s">
-        <v>92</v>
+        <v>475</v>
       </c>
       <c r="S46" t="s">
-        <v>46</v>
+        <v>476</v>
       </c>
       <c r="T46" t="s">
         <v>405</v>
@@ -7122,10 +7128,10 @@
         <v>278</v>
       </c>
       <c r="R47" t="s">
-        <v>92</v>
+        <v>475</v>
       </c>
       <c r="S47" t="s">
-        <v>46</v>
+        <v>476</v>
       </c>
       <c r="T47" s="32" t="s">
         <v>410</v>
@@ -7165,10 +7171,10 @@
         <v>278</v>
       </c>
       <c r="R49" t="s">
-        <v>92</v>
+        <v>475</v>
       </c>
       <c r="S49" t="s">
-        <v>46</v>
+        <v>476</v>
       </c>
       <c r="T49" s="35" t="s">
         <v>425</v>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32769E0-9902-4B84-9E6C-E61FB0C074A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F398A60-FF28-4847-9BFC-6AF9BB72615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5896,9 +5896,9 @@
   <dimension ref="A1:AT49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F398A60-FF28-4847-9BFC-6AF9BB72615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF36770E-376C-4A66-BE08-B9ADA19B99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="488">
   <si>
     <t>UserName</t>
   </si>
@@ -1496,6 +1496,39 @@
   </si>
   <si>
     <t>Narra</t>
+  </si>
+  <si>
+    <t>SKU-10000645 -2QTY</t>
+  </si>
+  <si>
+    <t>SKU-10002926 -2QTY CHE</t>
+  </si>
+  <si>
+    <t>Sweden-fr Address</t>
+  </si>
+  <si>
+    <t>Piazza Indipendenza 5</t>
+  </si>
+  <si>
+    <t>Chiasso</t>
+  </si>
+  <si>
+    <t>Ticino</t>
+  </si>
+  <si>
+    <t>6830</t>
+  </si>
+  <si>
+    <t>2AZ62B26X4675X42C96S</t>
+  </si>
+  <si>
+    <t>10002926</t>
+  </si>
+  <si>
+    <t>CHE SKU-10002926</t>
+  </si>
+  <si>
+    <t>Daylite®</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1726,6 +1759,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5893,12 +5932,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT49"/>
+  <dimension ref="A1:AT54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="AH39" sqref="AH39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6960,43 +6999,38 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE39" s="29" t="s">
-        <v>397</v>
+        <v>478</v>
+      </c>
+      <c r="AE39" s="36" t="s">
+        <v>487</v>
       </c>
       <c r="AF39" t="s">
-        <v>398</v>
+        <v>191</v>
+      </c>
+      <c r="AH39" s="36" t="s">
+        <v>487</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE40" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF40" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="AI40" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="AE40" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="AI40" s="5"/>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE41" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF41" s="34" t="s">
-        <v>418</v>
+        <v>477</v>
+      </c>
+      <c r="AE41" s="36" t="s">
+        <v>387</v>
       </c>
       <c r="AI41" s="5" t="s">
         <v>122</v>
@@ -7004,13 +7038,13 @@
     </row>
     <row r="42" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="AE42" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF42" s="34" t="s">
-        <v>418</v>
+        <v>397</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>398</v>
       </c>
       <c r="AI42" s="5" t="s">
         <v>188</v>
@@ -7018,7 +7052,7 @@
     </row>
     <row r="43" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AE43" s="29" t="s">
         <v>415</v>
@@ -7027,139 +7061,103 @@
         <v>416</v>
       </c>
       <c r="AI43" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE44" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF44" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI44" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE45" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF45" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI45" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE46" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF46" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI46" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>428</v>
       </c>
-      <c r="AE44" s="33" t="s">
+      <c r="AE47" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="AF44" s="34" t="s">
+      <c r="AF47" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="AI44" s="5" t="s">
+      <c r="AI47" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>392</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R48" t="s">
         <v>475</v>
       </c>
-      <c r="S45" t="s">
+      <c r="S48" t="s">
         <v>476</v>
       </c>
-      <c r="T45" t="s">
+      <c r="T48" t="s">
         <v>393</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U48" t="s">
         <v>394</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V48" t="s">
         <v>396</v>
       </c>
-      <c r="W45" s="5" t="s">
+      <c r="W48" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="X45" s="5" t="s">
+      <c r="X48" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>408</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R46" t="s">
-        <v>475</v>
-      </c>
-      <c r="S46" t="s">
-        <v>476</v>
-      </c>
-      <c r="T46" t="s">
-        <v>405</v>
-      </c>
-      <c r="U46" t="s">
-        <v>406</v>
-      </c>
-      <c r="V46" t="s">
-        <v>404</v>
-      </c>
-      <c r="W46" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="X46" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>409</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R47" t="s">
-        <v>475</v>
-      </c>
-      <c r="S47" t="s">
-        <v>476</v>
-      </c>
-      <c r="T47" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="U47" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="V47" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="W47" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO48" s="30" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>422</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>278</v>
@@ -7176,20 +7174,141 @@
       <c r="S49" t="s">
         <v>476</v>
       </c>
-      <c r="T49" s="35" t="s">
+      <c r="T49" t="s">
+        <v>405</v>
+      </c>
+      <c r="U49" t="s">
+        <v>406</v>
+      </c>
+      <c r="V49" t="s">
+        <v>404</v>
+      </c>
+      <c r="W49" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R50" t="s">
+        <v>475</v>
+      </c>
+      <c r="S50" t="s">
+        <v>476</v>
+      </c>
+      <c r="T50" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="U50" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="V50" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="W50" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO51" s="30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>433</v>
+      </c>
+      <c r="AO52" s="30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>422</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R53" t="s">
+        <v>475</v>
+      </c>
+      <c r="S53" t="s">
+        <v>476</v>
+      </c>
+      <c r="T53" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="U49" s="35" t="s">
+      <c r="U53" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="V49" s="33" t="s">
+      <c r="V53" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="W49" s="35" t="s">
+      <c r="W53" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="X49" s="5" t="s">
+      <c r="X53" s="5" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R54" t="s">
+        <v>475</v>
+      </c>
+      <c r="S54" t="s">
+        <v>476</v>
+      </c>
+      <c r="T54" t="s">
+        <v>480</v>
+      </c>
+      <c r="U54" t="s">
+        <v>481</v>
+      </c>
+      <c r="V54" t="s">
+        <v>482</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -7221,21 +7340,24 @@
     <hyperlink ref="B11" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
     <hyperlink ref="B15" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
     <hyperlink ref="C35" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
-    <hyperlink ref="B45" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
-    <hyperlink ref="C45" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
-    <hyperlink ref="D45" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
-    <hyperlink ref="B46" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
-    <hyperlink ref="C46" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
-    <hyperlink ref="D46" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
-    <hyperlink ref="B47" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
-    <hyperlink ref="C47" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
-    <hyperlink ref="D47" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B49" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C49" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D49" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B48" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C48" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D48" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B49" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
+    <hyperlink ref="C49" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
+    <hyperlink ref="D49" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
+    <hyperlink ref="B50" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
+    <hyperlink ref="C50" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
+    <hyperlink ref="D50" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
+    <hyperlink ref="B53" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C53" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D53" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B54" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C54" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D54" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF36770E-376C-4A66-BE08-B9ADA19B99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B4251-673B-4526-8D09-30B66E679887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="490">
   <si>
     <t>UserName</t>
   </si>
@@ -1529,6 +1529,12 @@
   </si>
   <si>
     <t>Daylite®</t>
+  </si>
+  <si>
+    <t>CHE groundshipping</t>
+  </si>
+  <si>
+    <t>Standard Delivery (2-7 Days)</t>
   </si>
 </sst>
 </file>
@@ -5932,12 +5938,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT54"/>
+  <dimension ref="A1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="AH39" sqref="AH39"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6206,105 +6212,97 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="9"/>
-      <c r="M5" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="2"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="7"/>
-      <c r="AK5" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM5">
-        <v>123</v>
+        <v>488</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="AJ5" s="5" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
-      </c>
-      <c r="M6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9"/>
+      <c r="M6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>262</v>
+      <c r="N6" s="2"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="2"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="7"/>
+      <c r="AK6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM6">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AK7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM7">
-        <v>123</v>
+      <c r="AJ7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>204</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AL8" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AM8">
-        <v>1234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>204</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AL9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AM9">
-        <v>123</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>204</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AL10" s="7" t="s">
         <v>101</v>
@@ -6315,214 +6313,173 @@
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" t="s">
-        <v>46</v>
+      <c r="AK11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM11">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s">
         <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" t="s">
-        <v>176</v>
-      </c>
-      <c r="V12" t="s">
-        <v>175</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="M13" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AK13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM13">
-        <v>12</v>
-      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" t="s">
+        <v>176</v>
+      </c>
+      <c r="V13" t="s">
+        <v>175</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
+      <c r="AK14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="5" t="s">
+      <c r="E15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R16" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" t="s">
-        <v>243</v>
-      </c>
-      <c r="U16" t="s">
-        <v>244</v>
-      </c>
-      <c r="V16" t="s">
-        <v>245</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
       <c r="R17" t="s">
         <v>46</v>
       </c>
@@ -6530,16 +6487,16 @@
         <v>92</v>
       </c>
       <c r="T17" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="U17" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="V17" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="X17" s="5" t="s">
         <v>93</v>
@@ -6550,21 +6507,18 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="9" t="s">
         <v>47</v>
       </c>
@@ -6577,7 +6531,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="5" t="s">
         <v>204</v>
       </c>
       <c r="N18" s="9"/>
@@ -6591,16 +6545,16 @@
         <v>92</v>
       </c>
       <c r="T18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="U18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="V18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X18" s="5" t="s">
         <v>93</v>
@@ -6611,130 +6565,180 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AE19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG19" s="5"/>
-      <c r="AI19" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" t="s">
+        <v>158</v>
+      </c>
+      <c r="U19" t="s">
+        <v>159</v>
+      </c>
+      <c r="V19" t="s">
+        <v>160</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
-      </c>
-      <c r="M20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AJ20" s="5" t="s">
-        <v>299</v>
+      <c r="AE20" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
-      </c>
-      <c r="M21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N21" t="s">
-        <v>208</v>
-      </c>
-      <c r="R21" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>187</v>
+      <c r="AJ21" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>72</v>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="R22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" t="s">
-        <v>264</v>
-      </c>
-      <c r="M23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Q23" t="s">
-        <v>265</v>
+      <c r="AI23" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" t="s">
+        <v>264</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N24" t="s">
-        <v>375</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>207</v>
+      <c r="Q24" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AO25" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>229</v>
+      <c r="N25" t="s">
+        <v>375</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AE26" t="s">
-        <v>252</v>
+      <c r="AO26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>204</v>
@@ -6745,124 +6749,111 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>255</v>
+      </c>
       <c r="M28" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S28" t="s">
-        <v>45</v>
-      </c>
-      <c r="T28" t="s">
-        <v>243</v>
-      </c>
-      <c r="U28" t="s">
-        <v>244</v>
-      </c>
-      <c r="V28" t="s">
-        <v>245</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5">
-        <v>888888</v>
-      </c>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM28" s="5">
-        <v>123</v>
-      </c>
-      <c r="AN28" s="7"/>
+      <c r="AE28" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="10"/>
       <c r="M29" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s">
+        <v>243</v>
+      </c>
+      <c r="U29" t="s">
+        <v>244</v>
+      </c>
+      <c r="V29" t="s">
+        <v>245</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5">
+        <v>888888</v>
+      </c>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>123</v>
+      </c>
+      <c r="AN29" s="7"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T30" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>268</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T31" s="5"/>
+      <c r="T31" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>281</v>
@@ -6876,100 +6867,106 @@
       <c r="E32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="M32" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R32" t="s">
-        <v>171</v>
-      </c>
-      <c r="S32" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC32" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD32" s="26">
-        <v>4</v>
-      </c>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="26"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE33" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="M33" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R33" t="s">
+        <v>171</v>
+      </c>
+      <c r="S33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC33" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD33" s="26">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="26"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>388</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>389</v>
+        <v>230</v>
+      </c>
+      <c r="AE34" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="O35" s="5"/>
-      <c r="R35" t="s">
-        <v>92</v>
-      </c>
-      <c r="S35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC35" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>388</v>
       </c>
       <c r="AT35" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>399</v>
-      </c>
-      <c r="C36" s="10"/>
+        <v>224</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="O36" s="5"/>
-      <c r="AC36" s="28"/>
-      <c r="AE36" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>122</v>
+      <c r="R36" t="s">
+        <v>92</v>
+      </c>
+      <c r="S36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC36" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -6982,35 +6979,36 @@
         <v>398</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>403</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="O38" s="5"/>
+      <c r="AC38" s="28"/>
       <c r="AE38" s="29" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF38" t="s">
         <v>398</v>
       </c>
       <c r="AI38" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE39" s="36" t="s">
-        <v>487</v>
+        <v>403</v>
+      </c>
+      <c r="AE39" s="29" t="s">
+        <v>397</v>
       </c>
       <c r="AF39" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH39" s="36" t="s">
-        <v>487</v>
+        <v>398</v>
       </c>
       <c r="AI39" s="5" t="s">
         <v>122</v>
@@ -7018,61 +7016,64 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>486</v>
-      </c>
-      <c r="AE40" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="AI40" s="5"/>
+        <v>478</v>
+      </c>
+      <c r="AE40" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH40" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI40" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE41" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="AI41" s="5"/>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>477</v>
       </c>
-      <c r="AE41" s="36" t="s">
+      <c r="AE42" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="AI41" s="5" t="s">
+      <c r="AI42" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>391</v>
       </c>
-      <c r="AE42" s="29" t="s">
+      <c r="AE43" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AF43" t="s">
         <v>398</v>
       </c>
-      <c r="AI42" s="5" t="s">
+      <c r="AI43" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:46" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>414</v>
       </c>
-      <c r="AE43" s="29" t="s">
+      <c r="AE44" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="AF43" s="34" t="s">
+      <c r="AF44" s="34" t="s">
         <v>416</v>
-      </c>
-      <c r="AI43" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE44" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF44" s="34" t="s">
-        <v>418</v>
       </c>
       <c r="AI44" s="5" t="s">
         <v>122</v>
@@ -7080,7 +7081,7 @@
     </row>
     <row r="45" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AE45" s="29" t="s">
         <v>417</v>
@@ -7089,75 +7090,54 @@
         <v>418</v>
       </c>
       <c r="AI45" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE46" s="29" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF46" s="34" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AI46" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE47" s="33" t="s">
-        <v>431</v>
+        <v>421</v>
+      </c>
+      <c r="AE47" s="29" t="s">
+        <v>415</v>
       </c>
       <c r="AF47" s="34" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AI47" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>392</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R48" t="s">
-        <v>475</v>
-      </c>
-      <c r="S48" t="s">
-        <v>476</v>
-      </c>
-      <c r="T48" t="s">
-        <v>393</v>
-      </c>
-      <c r="U48" t="s">
-        <v>394</v>
-      </c>
-      <c r="V48" t="s">
-        <v>396</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="X48" s="5" t="s">
-        <v>93</v>
+        <v>428</v>
+      </c>
+      <c r="AE48" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="AF48" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI48" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>278</v>
@@ -7175,16 +7155,16 @@
         <v>476</v>
       </c>
       <c r="T49" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="U49" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="V49" t="s">
-        <v>404</v>
-      </c>
-      <c r="W49" s="31" t="s">
-        <v>407</v>
+        <v>396</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="X49" s="5" t="s">
         <v>93</v>
@@ -7192,7 +7172,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>278</v>
@@ -7209,76 +7189,76 @@
       <c r="S50" t="s">
         <v>476</v>
       </c>
-      <c r="T50" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="U50" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="V50" s="33" t="s">
-        <v>413</v>
+      <c r="T50" t="s">
+        <v>405</v>
+      </c>
+      <c r="U50" t="s">
+        <v>406</v>
+      </c>
+      <c r="V50" t="s">
+        <v>404</v>
       </c>
       <c r="W50" s="31" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="X50" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO51" s="30" t="s">
-        <v>402</v>
+        <v>409</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R51" t="s">
+        <v>475</v>
+      </c>
+      <c r="S51" t="s">
+        <v>476</v>
+      </c>
+      <c r="T51" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="U51" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="V51" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="W51" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO52" s="30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>433</v>
       </c>
-      <c r="AO52" s="30" t="s">
+      <c r="AO53" s="30" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>422</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R53" t="s">
-        <v>475</v>
-      </c>
-      <c r="S53" t="s">
-        <v>476</v>
-      </c>
-      <c r="T53" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="U53" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="V53" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="W53" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="X53" s="5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>278</v>
@@ -7295,19 +7275,54 @@
       <c r="S54" t="s">
         <v>476</v>
       </c>
-      <c r="T54" t="s">
+      <c r="T54" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="U54" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="V54" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="W54" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>479</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R55" t="s">
+        <v>475</v>
+      </c>
+      <c r="S55" t="s">
+        <v>476</v>
+      </c>
+      <c r="T55" t="s">
         <v>480</v>
       </c>
-      <c r="U54" t="s">
+      <c r="U55" t="s">
         <v>481</v>
       </c>
-      <c r="V54" t="s">
+      <c r="V55" t="s">
         <v>482</v>
       </c>
-      <c r="W54" s="5" t="s">
+      <c r="W55" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="X54" s="5" t="s">
+      <c r="X55" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7317,44 +7332,44 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
     <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1600-000002000000}"/>
     <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
-    <hyperlink ref="C15" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
-    <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
-    <hyperlink ref="B17" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
-    <hyperlink ref="C17" r:id="rId11" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
-    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
+    <hyperlink ref="C16" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
+    <hyperlink ref="B18" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
+    <hyperlink ref="C18" r:id="rId11" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
+    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
     <hyperlink ref="D2" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
-    <hyperlink ref="L29" r:id="rId16" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
-    <hyperlink ref="B31" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
-    <hyperlink ref="D31" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
-    <hyperlink ref="E31" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
-    <hyperlink ref="E32" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
-    <hyperlink ref="B32" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
-    <hyperlink ref="C32" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
-    <hyperlink ref="D32" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
-    <hyperlink ref="B11" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
-    <hyperlink ref="B15" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
-    <hyperlink ref="C35" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
-    <hyperlink ref="B48" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
-    <hyperlink ref="C48" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
-    <hyperlink ref="D48" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
-    <hyperlink ref="B49" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
-    <hyperlink ref="C49" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
-    <hyperlink ref="D49" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
-    <hyperlink ref="B50" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
-    <hyperlink ref="C50" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
-    <hyperlink ref="D50" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B53" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C53" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D53" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B54" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C54" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D54" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="L30" r:id="rId16" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
+    <hyperlink ref="B32" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
+    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
+    <hyperlink ref="D32" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
+    <hyperlink ref="E32" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
+    <hyperlink ref="E33" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
+    <hyperlink ref="B33" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
+    <hyperlink ref="D33" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
+    <hyperlink ref="B12" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
+    <hyperlink ref="B16" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
+    <hyperlink ref="C36" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
+    <hyperlink ref="B49" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C49" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D49" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B50" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
+    <hyperlink ref="C50" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
+    <hyperlink ref="D50" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
+    <hyperlink ref="B51" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
+    <hyperlink ref="C51" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
+    <hyperlink ref="D51" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
+    <hyperlink ref="B54" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C54" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D54" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B55" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C55" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D55" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId43"/>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B4251-673B-4526-8D09-30B66E679887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C412127E-5232-4261-85FD-534CDE4027BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="497">
   <si>
     <t>UserName</t>
   </si>
@@ -1273,9 +1273,6 @@
     <t>Partial_Giftcard</t>
   </si>
   <si>
-    <t>4DU95D85Y5929Y53T88D</t>
-  </si>
-  <si>
     <t>SKU-10002926 -2QTY</t>
   </si>
   <si>
@@ -1535,6 +1532,30 @@
   </si>
   <si>
     <t>Standard Delivery (2-7 Days)</t>
+  </si>
+  <si>
+    <t>SKU-10004993 -2QTY IT</t>
+  </si>
+  <si>
+    <t>Sweden-IT Address</t>
+  </si>
+  <si>
+    <t>Via Biala 1</t>
+  </si>
+  <si>
+    <t>Laax Gr 2</t>
+  </si>
+  <si>
+    <t>Graubünden</t>
+  </si>
+  <si>
+    <t>7032</t>
+  </si>
+  <si>
+    <t>IT groundshipping</t>
+  </si>
+  <si>
+    <t>6YP53Z96N9485W79L66B</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2204,7 @@
         <v>15</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>18</v>
@@ -2291,7 +2312,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>278</v>
@@ -2323,16 +2344,16 @@
         <v>92</v>
       </c>
       <c r="U3" t="s">
+        <v>470</v>
+      </c>
+      <c r="V3" t="s">
+        <v>472</v>
+      </c>
+      <c r="W3" t="s">
         <v>471</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="W3" t="s">
-        <v>472</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>93</v>
@@ -2346,16 +2367,16 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>47</v>
@@ -2416,11 +2437,11 @@
         <v>204</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>282</v>
@@ -2434,11 +2455,11 @@
     </row>
     <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N6" s="5"/>
       <c r="AF6" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="20"/>
@@ -2451,11 +2472,11 @@
     </row>
     <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N7" s="5"/>
       <c r="AF7" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="20"/>
@@ -2468,11 +2489,11 @@
     </row>
     <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N8" s="5"/>
       <c r="AF8" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG8" s="10"/>
       <c r="AH8" s="20"/>
@@ -2480,16 +2501,16 @@
         <v>282</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N9" s="5"/>
       <c r="AF9" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG9" s="10"/>
       <c r="AH9" s="20"/>
@@ -2502,7 +2523,7 @@
     </row>
     <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N10" s="5"/>
       <c r="AF10" s="10" t="s">
@@ -2519,7 +2540,7 @@
     </row>
     <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N11" s="5"/>
       <c r="AF11" s="10" t="s">
@@ -2536,11 +2557,11 @@
     </row>
     <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N12" s="5"/>
       <c r="AF12" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="20"/>
@@ -2553,11 +2574,11 @@
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N13" s="5"/>
       <c r="AF13" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG13" s="10"/>
       <c r="AH13" t="s">
@@ -2567,7 +2588,7 @@
         <v>282</v>
       </c>
       <c r="AJ13" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK13" s="5" t="s">
         <v>122</v>
@@ -2575,11 +2596,11 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N14" s="5"/>
       <c r="AF14" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG14" s="10"/>
       <c r="AH14" t="s">
@@ -2589,7 +2610,7 @@
         <v>282</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK14" s="5" t="s">
         <v>122</v>
@@ -2603,7 +2624,7 @@
         <v>204</v>
       </c>
       <c r="AL15" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
@@ -2730,10 +2751,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
@@ -2826,11 +2847,11 @@
         <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>204</v>
@@ -2891,16 +2912,16 @@
         <v>92</v>
       </c>
       <c r="U27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W27" t="s">
         <v>316</v>
       </c>
       <c r="X27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Y27" s="5" t="s">
         <v>93</v>
@@ -3043,10 +3064,10 @@
         <v>204</v>
       </c>
       <c r="AF30" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG30" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AI30" s="5"/>
       <c r="AK30" s="5" t="s">
@@ -3061,7 +3082,7 @@
         <v>204</v>
       </c>
       <c r="AL31" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
@@ -3123,7 +3144,7 @@
         <v>375</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>207</v>
@@ -3137,7 +3158,7 @@
         <v>204</v>
       </c>
       <c r="AQ36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AR36" t="s">
         <v>242</v>
@@ -3239,7 +3260,7 @@
         <v>259</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L40" t="s">
         <v>45</v>
@@ -3259,7 +3280,7 @@
         <v>204</v>
       </c>
       <c r="U41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
@@ -3267,19 +3288,19 @@
         <v>268</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>204</v>
@@ -3336,15 +3357,15 @@
         <v>283</v>
       </c>
       <c r="H44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -5938,12 +5959,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT55"/>
+  <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6212,114 +6233,106 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M5" s="2"/>
       <c r="AJ5" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="9"/>
-      <c r="M6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="2"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="7"/>
-      <c r="AK6" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AL6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM6">
-        <v>123</v>
+        <v>495</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="AJ6" s="5" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="M7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>262</v>
+      <c r="N7" s="2"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="2"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="7"/>
+      <c r="AK7" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM7">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AK8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM8">
-        <v>123</v>
+      <c r="AJ8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>204</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AL9" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AM9">
-        <v>1234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>204</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AL10" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AM10">
-        <v>123</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>204</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AL11" s="7" t="s">
         <v>101</v>
@@ -6330,214 +6343,173 @@
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s">
-        <v>46</v>
+      <c r="AK12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM12">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s">
         <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" t="s">
-        <v>176</v>
-      </c>
-      <c r="V13" t="s">
-        <v>175</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="M14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AK14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM14">
-        <v>12</v>
-      </c>
+      <c r="R14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" t="s">
+        <v>176</v>
+      </c>
+      <c r="V14" t="s">
+        <v>175</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
+      <c r="AK15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM15">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="5" t="s">
+      <c r="E16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R17" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" t="s">
-        <v>92</v>
-      </c>
-      <c r="T17" t="s">
-        <v>243</v>
-      </c>
-      <c r="U17" t="s">
-        <v>244</v>
-      </c>
-      <c r="V17" t="s">
-        <v>245</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
       <c r="R18" t="s">
         <v>46</v>
       </c>
@@ -6545,16 +6517,16 @@
         <v>92</v>
       </c>
       <c r="T18" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="U18" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="V18" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="X18" s="5" t="s">
         <v>93</v>
@@ -6565,21 +6537,18 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="9" t="s">
         <v>47</v>
       </c>
@@ -6592,7 +6561,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="5" t="s">
         <v>204</v>
       </c>
       <c r="N19" s="9"/>
@@ -6606,16 +6575,16 @@
         <v>92</v>
       </c>
       <c r="T19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="U19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="V19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>93</v>
@@ -6626,130 +6595,180 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AE20" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG20" s="5"/>
-      <c r="AI20" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" t="s">
+        <v>158</v>
+      </c>
+      <c r="U20" t="s">
+        <v>159</v>
+      </c>
+      <c r="V20" t="s">
+        <v>160</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>178</v>
-      </c>
-      <c r="M21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AJ21" s="5" t="s">
-        <v>299</v>
+      <c r="AE21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N22" t="s">
-        <v>208</v>
-      </c>
-      <c r="R22" t="s">
-        <v>46</v>
-      </c>
-      <c r="S22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>187</v>
+      <c r="AJ22" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>72</v>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="R23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" t="s">
-        <v>264</v>
-      </c>
-      <c r="M24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Q24" t="s">
-        <v>265</v>
+      <c r="AI24" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" t="s">
+        <v>264</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N25" t="s">
-        <v>375</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>207</v>
+      <c r="Q25" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AO26" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>229</v>
+      <c r="N26" t="s">
+        <v>375</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AE27" t="s">
-        <v>252</v>
+      <c r="AO27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>204</v>
@@ -6760,124 +6779,111 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>255</v>
+      </c>
       <c r="M29" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S29" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" t="s">
-        <v>243</v>
-      </c>
-      <c r="U29" t="s">
-        <v>244</v>
-      </c>
-      <c r="V29" t="s">
-        <v>245</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X29" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5">
-        <v>888888</v>
-      </c>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM29" s="5">
-        <v>123</v>
-      </c>
-      <c r="AN29" s="7"/>
+      <c r="AE29" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K30" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="10"/>
       <c r="M30" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T30" t="s">
+        <v>243</v>
+      </c>
+      <c r="U30" t="s">
+        <v>244</v>
+      </c>
+      <c r="V30" t="s">
+        <v>245</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5">
+        <v>888888</v>
+      </c>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>123</v>
+      </c>
+      <c r="AN30" s="7"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T31" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T32" s="5"/>
+      <c r="T32" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>281</v>
@@ -6891,100 +6897,106 @@
       <c r="E33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="M33" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R33" t="s">
-        <v>171</v>
-      </c>
-      <c r="S33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC33" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD33" s="26">
-        <v>4</v>
-      </c>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="26"/>
+      <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE34" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="M34" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R34" t="s">
+        <v>171</v>
+      </c>
+      <c r="S34" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC34" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD34" s="26">
+        <v>4</v>
+      </c>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="26"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>388</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>389</v>
+        <v>230</v>
+      </c>
+      <c r="AE35" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="O36" s="5"/>
-      <c r="R36" t="s">
-        <v>92</v>
-      </c>
-      <c r="S36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC36" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>388</v>
       </c>
       <c r="AT36" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>399</v>
-      </c>
-      <c r="C37" s="10"/>
+        <v>224</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="O37" s="5"/>
-      <c r="AC37" s="28"/>
-      <c r="AE37" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI37" s="5" t="s">
-        <v>122</v>
+      <c r="R37" t="s">
+        <v>92</v>
+      </c>
+      <c r="S37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC37" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -6997,83 +7009,94 @@
         <v>398</v>
       </c>
       <c r="AI38" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>489</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="O39" s="5"/>
+      <c r="AC39" s="28"/>
+      <c r="AE39" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH39" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI39" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>423</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="O40" s="5"/>
+      <c r="AC40" s="28"/>
+      <c r="AE40" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI40" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE39" s="29" t="s">
+    <row r="41" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE41" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AF41" t="s">
         <v>398</v>
       </c>
-      <c r="AI39" s="5" t="s">
+      <c r="AI41" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE40" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH40" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI40" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>486</v>
-      </c>
-      <c r="AE41" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="AI41" s="5"/>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>477</v>
       </c>
       <c r="AE42" s="36" t="s">
-        <v>387</v>
+        <v>486</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH42" s="36" t="s">
+        <v>486</v>
       </c>
       <c r="AI42" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE43" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI43" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="AE43" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="AI43" s="5"/>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE44" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF44" s="34" t="s">
-        <v>416</v>
+        <v>476</v>
+      </c>
+      <c r="AE44" s="36" t="s">
+        <v>387</v>
       </c>
       <c r="AI44" s="5" t="s">
         <v>122</v>
@@ -7081,133 +7104,91 @@
     </row>
     <row r="45" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE45" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI45" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE46" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF46" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI46" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE47" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF47" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI47" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>419</v>
       </c>
-      <c r="AE45" s="29" t="s">
+      <c r="AE48" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF48" s="34" t="s">
         <v>417</v>
-      </c>
-      <c r="AF45" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI45" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE46" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF46" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI46" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE47" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF47" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="AI47" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE48" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF48" s="34" t="s">
-        <v>429</v>
       </c>
       <c r="AI48" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>392</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R49" t="s">
-        <v>475</v>
-      </c>
-      <c r="S49" t="s">
-        <v>476</v>
-      </c>
-      <c r="T49" t="s">
-        <v>393</v>
-      </c>
-      <c r="U49" t="s">
-        <v>394</v>
-      </c>
-      <c r="V49" t="s">
-        <v>396</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="AE49" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF49" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI49" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>408</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R50" t="s">
-        <v>475</v>
-      </c>
-      <c r="S50" t="s">
-        <v>476</v>
-      </c>
-      <c r="T50" t="s">
-        <v>405</v>
-      </c>
-      <c r="U50" t="s">
-        <v>406</v>
-      </c>
-      <c r="V50" t="s">
-        <v>404</v>
-      </c>
-      <c r="W50" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="X50" s="5" t="s">
-        <v>93</v>
+        <v>427</v>
+      </c>
+      <c r="AE50" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF50" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI50" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>278</v>
@@ -7219,110 +7200,215 @@
         <v>278</v>
       </c>
       <c r="R51" t="s">
+        <v>474</v>
+      </c>
+      <c r="S51" t="s">
         <v>475</v>
       </c>
-      <c r="S51" t="s">
-        <v>476</v>
-      </c>
-      <c r="T51" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="U51" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="V51" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="W51" s="31" t="s">
-        <v>412</v>
+      <c r="T51" t="s">
+        <v>393</v>
+      </c>
+      <c r="U51" t="s">
+        <v>394</v>
+      </c>
+      <c r="V51" t="s">
+        <v>396</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="X51" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>407</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R52" t="s">
+        <v>474</v>
+      </c>
+      <c r="S52" t="s">
+        <v>475</v>
+      </c>
+      <c r="T52" t="s">
+        <v>404</v>
+      </c>
+      <c r="U52" t="s">
+        <v>405</v>
+      </c>
+      <c r="V52" t="s">
+        <v>403</v>
+      </c>
+      <c r="W52" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R53" t="s">
+        <v>474</v>
+      </c>
+      <c r="S53" t="s">
+        <v>475</v>
+      </c>
+      <c r="T53" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="U53" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="V53" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="W53" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>401</v>
       </c>
-      <c r="AO52" s="30" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>433</v>
-      </c>
-      <c r="AO53" s="30" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="AO54" s="30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>432</v>
+      </c>
+      <c r="AO55" s="30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>421</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R56" t="s">
+        <v>474</v>
+      </c>
+      <c r="S56" t="s">
+        <v>475</v>
+      </c>
+      <c r="T56" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="U56" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V56" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="W56" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="X56" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>478</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R57" t="s">
+        <v>474</v>
+      </c>
+      <c r="S57" t="s">
         <v>475</v>
       </c>
-      <c r="S54" t="s">
-        <v>476</v>
-      </c>
-      <c r="T54" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="U54" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="V54" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="W54" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="X54" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="T57" t="s">
         <v>479</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="U57" t="s">
+        <v>480</v>
+      </c>
+      <c r="V57" t="s">
+        <v>481</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R58" t="s">
+        <v>474</v>
+      </c>
+      <c r="S58" t="s">
         <v>475</v>
       </c>
-      <c r="S55" t="s">
-        <v>476</v>
-      </c>
-      <c r="T55" t="s">
-        <v>480</v>
-      </c>
-      <c r="U55" t="s">
-        <v>481</v>
-      </c>
-      <c r="V55" t="s">
-        <v>482</v>
-      </c>
-      <c r="W55" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="X55" s="5" t="s">
+      <c r="T58" t="s">
+        <v>491</v>
+      </c>
+      <c r="U58" t="s">
+        <v>492</v>
+      </c>
+      <c r="V58" t="s">
+        <v>493</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="X58" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7332,47 +7418,50 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
     <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1600-000002000000}"/>
     <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
-    <hyperlink ref="F16" r:id="rId9" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
-    <hyperlink ref="B18" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
-    <hyperlink ref="C18" r:id="rId11" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
-    <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
-    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
+    <hyperlink ref="C17" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
+    <hyperlink ref="F17" r:id="rId9" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
+    <hyperlink ref="B19" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
+    <hyperlink ref="B20" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
+    <hyperlink ref="C30" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
     <hyperlink ref="D2" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
-    <hyperlink ref="L30" r:id="rId16" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
-    <hyperlink ref="B32" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
-    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
-    <hyperlink ref="D32" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
-    <hyperlink ref="E32" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
-    <hyperlink ref="E33" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
-    <hyperlink ref="B33" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
-    <hyperlink ref="C33" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
-    <hyperlink ref="D33" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
-    <hyperlink ref="B12" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
-    <hyperlink ref="B16" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
-    <hyperlink ref="C36" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
-    <hyperlink ref="B49" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
-    <hyperlink ref="C49" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
-    <hyperlink ref="D49" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
-    <hyperlink ref="B50" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
-    <hyperlink ref="C50" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
-    <hyperlink ref="D50" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
-    <hyperlink ref="B51" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
-    <hyperlink ref="C51" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
-    <hyperlink ref="D51" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B54" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C54" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D54" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B55" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C55" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D55" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="L31" r:id="rId16" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
+    <hyperlink ref="B33" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
+    <hyperlink ref="C33" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
+    <hyperlink ref="D33" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
+    <hyperlink ref="E33" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
+    <hyperlink ref="E34" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
+    <hyperlink ref="B34" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
+    <hyperlink ref="C34" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
+    <hyperlink ref="D34" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
+    <hyperlink ref="B13" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
+    <hyperlink ref="B17" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
+    <hyperlink ref="C37" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
+    <hyperlink ref="B51" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C51" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D51" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B52" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
+    <hyperlink ref="C52" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
+    <hyperlink ref="D52" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
+    <hyperlink ref="B53" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
+    <hyperlink ref="C53" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
+    <hyperlink ref="D53" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
+    <hyperlink ref="B56" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C56" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D56" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B57" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C57" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D57" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="B58" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
+    <hyperlink ref="C58" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
+    <hyperlink ref="D58" r:id="rId45" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C412127E-5232-4261-85FD-534CDE4027BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823BD435-F5E8-4EE5-A779-2E2142579787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osprey_E2E" sheetId="26" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="504">
   <si>
     <t>UserName</t>
   </si>
@@ -1556,6 +1556,27 @@
   </si>
   <si>
     <t>6YP53Z96N9485W79L66B</t>
+  </si>
+  <si>
+    <t>Switzerland_Germany-GuestAddress</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Trottenweg 2</t>
+  </si>
+  <si>
+    <t>Wohlen AG</t>
+  </si>
+  <si>
+    <t>Aargau</t>
+  </si>
+  <si>
+    <t>10002928 - 2</t>
   </si>
 </sst>
 </file>
@@ -2073,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB898B7-F8AD-4A5F-BE2F-C5B4C0E6C103}">
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A1:AT47"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,11 +2493,11 @@
     </row>
     <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="N7" s="5"/>
       <c r="AF7" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="20"/>
@@ -2489,7 +2510,7 @@
     </row>
     <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N8" s="5"/>
       <c r="AF8" s="10" t="s">
@@ -2501,16 +2522,16 @@
         <v>282</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>458</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="N9" s="5"/>
       <c r="AF9" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AG9" s="10"/>
       <c r="AH9" s="20"/>
@@ -2518,16 +2539,16 @@
         <v>282</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>122</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N10" s="5"/>
       <c r="AF10" s="10" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="AG10" s="10"/>
       <c r="AH10" s="20"/>
@@ -2535,12 +2556,12 @@
         <v>282</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N11" s="5"/>
       <c r="AF11" s="10" t="s">
@@ -2552,16 +2573,16 @@
         <v>282</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N12" s="5"/>
       <c r="AF12" s="10" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="AG12" s="10"/>
       <c r="AH12" s="20"/>
@@ -2569,38 +2590,33 @@
         <v>282</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N13" s="5"/>
       <c r="AF13" s="10" t="s">
         <v>451</v>
       </c>
       <c r="AG13" s="10"/>
-      <c r="AH13" t="s">
-        <v>191</v>
-      </c>
+      <c r="AH13" s="20"/>
       <c r="AI13" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="AJ13" s="10" t="s">
-        <v>451</v>
-      </c>
       <c r="AK13" s="5" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N14" s="5"/>
       <c r="AF14" s="10" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="AG14" s="10"/>
       <c r="AH14" t="s">
@@ -2610,7 +2626,7 @@
         <v>282</v>
       </c>
       <c r="AJ14" s="10" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="AK14" s="5" t="s">
         <v>122</v>
@@ -2618,126 +2634,128 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="AF15" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG15" s="10"/>
+      <c r="AH15" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI15" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>383</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-      <c r="N16" s="5" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="N17" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="2"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="7"/>
-      <c r="AM16" s="5" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="2"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="7"/>
+      <c r="AM17" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="AN16" s="7" t="s">
+      <c r="AN17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AO16">
+      <c r="AO17">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>261</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AL18" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AM18" s="5" t="s">
+      <c r="AM19" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="AN18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO18">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="X19" t="s">
-        <v>250</v>
-      </c>
-      <c r="AM19" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="AN19" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AO19">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="X20" s="5" t="s">
+      <c r="X20" t="s">
         <v>250</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AN20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AO20">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>204</v>
       </c>
       <c r="X21" s="5" t="s">
         <v>250</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AN21" s="7" t="s">
         <v>101</v>
@@ -2746,224 +2764,185 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="5" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" t="s">
-        <v>45</v>
-      </c>
-      <c r="T22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
       <c r="S23" t="s">
         <v>45</v>
       </c>
       <c r="T23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S24" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" t="s">
         <v>73</v>
       </c>
-      <c r="U23" s="2"/>
-      <c r="V23" t="s">
+      <c r="U24" s="2"/>
+      <c r="V24" t="s">
         <v>176</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W24" t="s">
         <v>175</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="X24" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="Y23" s="5" t="s">
+      <c r="Y24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AM24" s="5" t="s">
+      <c r="AM25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AN24" s="7" t="s">
+      <c r="AN25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AO24">
+      <c r="AO25">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s">
-        <v>446</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="Y25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
+        <v>446</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="Y26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="5" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>146</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="S27" t="s">
-        <v>46</v>
-      </c>
-      <c r="T27" t="s">
-        <v>92</v>
-      </c>
-      <c r="U27" t="s">
-        <v>445</v>
-      </c>
-      <c r="V27" t="s">
-        <v>444</v>
-      </c>
-      <c r="W27" t="s">
-        <v>316</v>
-      </c>
-      <c r="X27" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
       <c r="S28" t="s">
         <v>46</v>
       </c>
@@ -2971,16 +2950,16 @@
         <v>92</v>
       </c>
       <c r="U28" t="s">
-        <v>152</v>
+        <v>445</v>
       </c>
       <c r="V28" t="s">
-        <v>153</v>
+        <v>444</v>
       </c>
       <c r="W28" t="s">
-        <v>154</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>155</v>
+        <v>316</v>
+      </c>
+      <c r="X28" t="s">
+        <v>443</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>93</v>
@@ -2991,21 +2970,18 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="7"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
         <v>47</v>
       </c>
@@ -3019,7 +2995,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="5" t="s">
         <v>204</v>
       </c>
       <c r="O29" s="9"/>
@@ -3033,16 +3009,16 @@
         <v>92</v>
       </c>
       <c r="U29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="V29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="W29" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Y29" s="5" t="s">
         <v>93</v>
@@ -3053,134 +3029,185 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AI29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="7"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" t="s">
+        <v>92</v>
+      </c>
+      <c r="U30" t="s">
+        <v>158</v>
+      </c>
+      <c r="V30" t="s">
+        <v>159</v>
+      </c>
+      <c r="W30" t="s">
+        <v>160</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>166</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N31" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AF30" s="10" t="s">
+      <c r="AF31" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="AG30" s="10" t="s">
+      <c r="AG31" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AK30" s="5" t="s">
+      <c r="AI31" s="5"/>
+      <c r="AK31" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AL31" s="5" t="s">
+      <c r="AL32" s="5" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>186</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="O32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S32" t="s">
-        <v>46</v>
-      </c>
-      <c r="T32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AK33" s="5" t="s">
-        <v>122</v>
+      <c r="O33" t="s">
+        <v>208</v>
+      </c>
+      <c r="S33" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" t="s">
-        <v>201</v>
-      </c>
-      <c r="I34" t="s">
-        <v>264</v>
-      </c>
-      <c r="N34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="R34" t="s">
-        <v>265</v>
+      <c r="AK34" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="G35" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>207</v>
+      <c r="R35" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AQ36" t="s">
-        <v>438</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>242</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>229</v>
+      <c r="O36" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AF37" t="s">
-        <v>252</v>
+      <c r="AQ37" t="s">
+        <v>438</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>204</v>
@@ -3191,181 +3218,227 @@
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>256</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="10"/>
+        <v>255</v>
+      </c>
       <c r="N39" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T39" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39" t="s">
-        <v>243</v>
-      </c>
-      <c r="V39" t="s">
-        <v>244</v>
-      </c>
-      <c r="W39" t="s">
-        <v>245</v>
-      </c>
-      <c r="X39" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5">
-        <v>888888</v>
-      </c>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN39" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO39" s="5">
-        <v>123</v>
-      </c>
-      <c r="AP39" s="7"/>
+      <c r="AF39" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="L40" t="s">
-        <v>45</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="10"/>
       <c r="N40" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" t="s">
+        <v>243</v>
+      </c>
+      <c r="V40" t="s">
+        <v>244</v>
+      </c>
+      <c r="W40" t="s">
+        <v>245</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5">
+        <v>888888</v>
+      </c>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO40" s="5">
+        <v>123</v>
+      </c>
+      <c r="AP40" s="7"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="L41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="U41" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>434</v>
+        <v>260</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="U42" s="5"/>
+      <c r="U42" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="N43" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="S43" t="s">
-        <v>171</v>
-      </c>
-      <c r="T43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD43" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE43" s="26">
-        <v>4</v>
-      </c>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="26"/>
+      <c r="U43" s="5"/>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>283</v>
-      </c>
-      <c r="H44" t="s">
-        <v>433</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="N44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="S44" t="s">
+        <v>171</v>
+      </c>
+      <c r="T44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD44" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE44" s="26">
+        <v>4</v>
+      </c>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="26"/>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>283</v>
+      </c>
+      <c r="H45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>432</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>497</v>
+      </c>
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" t="s">
+        <v>278</v>
+      </c>
+      <c r="S47" t="s">
+        <v>498</v>
+      </c>
+      <c r="T47" t="s">
+        <v>499</v>
+      </c>
+      <c r="U47" t="s">
+        <v>500</v>
+      </c>
+      <c r="V47" t="s">
+        <v>501</v>
+      </c>
+      <c r="W47" t="s">
+        <v>502</v>
+      </c>
+      <c r="X47">
+        <v>5610</v>
+      </c>
+      <c r="Y47">
+        <v>9999998989</v>
       </c>
     </row>
   </sheetData>
@@ -3374,34 +3447,34 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{988153DA-4C7F-4E94-8BE8-0DD9931BAD37}"/>
     <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{0CF42103-522A-4081-86EE-96C4D820CDE6}"/>
     <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{E526016C-54AA-411B-A691-7BAB8AB9D9FD}"/>
-    <hyperlink ref="E22" r:id="rId5" xr:uid="{5BEF175C-8568-4877-A1F2-5279887261D7}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{7360C1AA-AEFB-46C3-853D-764E45594F6A}"/>
-    <hyperlink ref="C26" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{29A5ACF3-3F2E-44A7-9A0A-2EE8BF006B55}"/>
-    <hyperlink ref="F26" r:id="rId8" xr:uid="{95E71A71-F2E2-4BC5-8B88-1B4C30F9F198}"/>
-    <hyperlink ref="B28" r:id="rId9" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{191A3A40-6322-47F9-A472-42727476E676}"/>
-    <hyperlink ref="C28" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{35CA3724-5B20-4215-A7D8-8278AED7B63B}"/>
-    <hyperlink ref="B29" r:id="rId11" xr:uid="{F80ED036-D37D-4D25-9E84-167E827AEACC}"/>
-    <hyperlink ref="C29" r:id="rId12" xr:uid="{39E86C17-AB6B-4736-8FD8-51D664482BDC}"/>
-    <hyperlink ref="C39" r:id="rId13" xr:uid="{BB71BF80-5A94-4DF5-A619-592504F030A5}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{5BEF175C-8568-4877-A1F2-5279887261D7}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{7360C1AA-AEFB-46C3-853D-764E45594F6A}"/>
+    <hyperlink ref="C27" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{29A5ACF3-3F2E-44A7-9A0A-2EE8BF006B55}"/>
+    <hyperlink ref="F27" r:id="rId8" xr:uid="{95E71A71-F2E2-4BC5-8B88-1B4C30F9F198}"/>
+    <hyperlink ref="B29" r:id="rId9" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{191A3A40-6322-47F9-A472-42727476E676}"/>
+    <hyperlink ref="C29" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{35CA3724-5B20-4215-A7D8-8278AED7B63B}"/>
+    <hyperlink ref="B30" r:id="rId11" xr:uid="{F80ED036-D37D-4D25-9E84-167E827AEACC}"/>
+    <hyperlink ref="C30" r:id="rId12" xr:uid="{39E86C17-AB6B-4736-8FD8-51D664482BDC}"/>
+    <hyperlink ref="C40" r:id="rId13" xr:uid="{BB71BF80-5A94-4DF5-A619-592504F030A5}"/>
     <hyperlink ref="D2" r:id="rId14" display="testersemail.278@gmail.com" xr:uid="{762E3771-1A14-4ADF-B233-F706CC67585C}"/>
-    <hyperlink ref="M40" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{661FBEFB-D442-44E4-9A42-65D24FE8370F}"/>
-    <hyperlink ref="B42" r:id="rId16" xr:uid="{2CEE2BBC-471E-4476-B76A-3F7233050B89}"/>
-    <hyperlink ref="C42" r:id="rId17" xr:uid="{7922502D-4C00-44E1-A6F4-71BA0DC39C3E}"/>
-    <hyperlink ref="D42" r:id="rId18" xr:uid="{9D66CAC1-5E53-4022-8016-B75952B461B9}"/>
-    <hyperlink ref="E42" r:id="rId19" xr:uid="{B938F466-5E31-4018-876F-6A28D8433DCB}"/>
-    <hyperlink ref="E43" r:id="rId20" xr:uid="{FD64FD41-4B71-430A-9E87-E770BDBC1DE8}"/>
-    <hyperlink ref="B43" r:id="rId21" xr:uid="{5430F070-68FA-45BC-A7D7-FD317B6AB933}"/>
-    <hyperlink ref="C43" r:id="rId22" xr:uid="{1415DD0C-4B90-4CB8-BE39-94246EA7E5A0}"/>
-    <hyperlink ref="D43" r:id="rId23" xr:uid="{A0DAC1F1-32A0-464B-9F05-699659069EBF}"/>
-    <hyperlink ref="B22" r:id="rId24" xr:uid="{8D6727B2-1421-40EB-A9FF-43ACDF93F9F2}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{80B92F45-F944-4987-B387-B5FFF81D060A}"/>
-    <hyperlink ref="C22" r:id="rId26" xr:uid="{F850A62A-C089-4319-BFF8-B73B40867433}"/>
+    <hyperlink ref="M41" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{661FBEFB-D442-44E4-9A42-65D24FE8370F}"/>
+    <hyperlink ref="B43" r:id="rId16" xr:uid="{2CEE2BBC-471E-4476-B76A-3F7233050B89}"/>
+    <hyperlink ref="C43" r:id="rId17" xr:uid="{7922502D-4C00-44E1-A6F4-71BA0DC39C3E}"/>
+    <hyperlink ref="D43" r:id="rId18" xr:uid="{9D66CAC1-5E53-4022-8016-B75952B461B9}"/>
+    <hyperlink ref="E43" r:id="rId19" xr:uid="{B938F466-5E31-4018-876F-6A28D8433DCB}"/>
+    <hyperlink ref="E44" r:id="rId20" xr:uid="{FD64FD41-4B71-430A-9E87-E770BDBC1DE8}"/>
+    <hyperlink ref="B44" r:id="rId21" xr:uid="{5430F070-68FA-45BC-A7D7-FD317B6AB933}"/>
+    <hyperlink ref="C44" r:id="rId22" xr:uid="{1415DD0C-4B90-4CB8-BE39-94246EA7E5A0}"/>
+    <hyperlink ref="D44" r:id="rId23" xr:uid="{A0DAC1F1-32A0-464B-9F05-699659069EBF}"/>
+    <hyperlink ref="B23" r:id="rId24" xr:uid="{8D6727B2-1421-40EB-A9FF-43ACDF93F9F2}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{80B92F45-F944-4987-B387-B5FFF81D060A}"/>
+    <hyperlink ref="C23" r:id="rId26" xr:uid="{F850A62A-C089-4319-BFF8-B73B40867433}"/>
     <hyperlink ref="AF5" r:id="rId27" display="https://mcloud-na-preprod.osprey.com/gb/osprey-wildwater-dry-bag-25-f23" xr:uid="{B5863964-95C1-446D-B803-1B9817B08AF9}"/>
     <hyperlink ref="E4" r:id="rId28" xr:uid="{4D82D90C-6A09-4AC3-A8C8-5F7819640F35}"/>
     <hyperlink ref="F4" r:id="rId29" display="Testers@278" xr:uid="{38B6B8B2-7D9E-49C1-995B-96D60F02BCAC}"/>
     <hyperlink ref="B4" r:id="rId30" xr:uid="{A856926B-E4BE-424C-AA62-B5630885F674}"/>
-    <hyperlink ref="F42" r:id="rId31" xr:uid="{A128FC83-D12D-41E4-B5D0-0CD0EECE675B}"/>
-    <hyperlink ref="AF30" r:id="rId32" display="https://mcloud-na-preprod.osprey.com/gb/poco-child-carrier-raincover-2021" xr:uid="{AC7094B1-806E-4D9E-9038-9F3AAE7BEB1C}"/>
+    <hyperlink ref="F43" r:id="rId31" xr:uid="{A128FC83-D12D-41E4-B5D0-0CD0EECE675B}"/>
+    <hyperlink ref="AF31" r:id="rId32" display="https://mcloud-na-preprod.osprey.com/gb/poco-child-carrier-raincover-2021" xr:uid="{AC7094B1-806E-4D9E-9038-9F3AAE7BEB1C}"/>
     <hyperlink ref="B3" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{088F18E1-F7B7-4F33-943D-3DE88D7E17B1}"/>
     <hyperlink ref="C3" r:id="rId34" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{4443F290-9645-4F18-8CF3-41BE5F7A1452}"/>
     <hyperlink ref="D3" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{EDE37AC4-39BE-4B7A-A8EB-1AF6D11A8ECB}"/>
@@ -5961,7 +6034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823BD435-F5E8-4EE5-A779-2E2142579787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF71012-E2B6-4AA1-860A-35EF92345B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23040" windowHeight="11292" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osprey_E2E" sheetId="26" r:id="rId1"/>
@@ -2096,38 +2096,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB898B7-F8AD-4A5F-BE2F-C5B4C0E6C103}">
   <dimension ref="A1:AT47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="31" width="11" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.42578125" customWidth="1"/>
-    <col min="45" max="45" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.44140625" customWidth="1"/>
+    <col min="45" max="45" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>468</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>463</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>503</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>461</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>460</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>457</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>455</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>453</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>452</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>383</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>261</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -2971,7 +2971,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="7"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>203</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>230</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>253</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>255</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>256</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="AP40" s="7"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>260</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>268</v>
       </c>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>271</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="AH44" s="25"/>
       <c r="AI44" s="26"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>283</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>432</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>497</v>
       </c>
@@ -3492,12 +3492,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="Q5" s="4"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3678,12 +3678,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -3739,27 +3739,27 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="9"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H5" s="10"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H6" s="5"/>
     </row>
   </sheetData>
@@ -3776,9 +3776,9 @@
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -3944,16 +3944,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -4144,19 +4144,19 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -4375,13 +4375,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -4463,13 +4463,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4482,7 +4482,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4510,23 +4510,23 @@
       <selection activeCell="I2" sqref="I2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N7" s="15"/>
     </row>
   </sheetData>
@@ -4755,21 +4755,21 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.7109375" customWidth="1"/>
+    <col min="14" max="14" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.6640625" customWidth="1"/>
     <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -4937,13 +4937,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="222.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="222.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>305</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -5063,19 +5063,19 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -5158,63 +5158,63 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -5235,16 +5235,16 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>323</v>
       </c>
@@ -5379,24 +5379,24 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>379</v>
       </c>
@@ -5622,15 +5622,15 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>32881</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -5905,17 +5905,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -6034,40 +6034,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="25" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.42578125" customWidth="1"/>
-    <col min="43" max="43" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.44140625" customWidth="1"/>
+    <col min="43" max="43" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>495</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>261</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -6507,7 +6507,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -6524,16 +6524,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>143</v>
+        <v>447</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="9" t="s">
-        <v>142</v>
+      <c r="E16" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>204</v>
@@ -6543,7 +6543,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -6576,7 +6576,7 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -6611,7 +6611,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="AI19" s="5"/>
       <c r="AJ19" s="7"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -6731,7 +6731,7 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>186</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>230</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>255</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>256</v>
       </c>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>260</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>268</v>
       </c>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>271</v>
       </c>
@@ -7023,7 +7023,7 @@
       <c r="AF34" s="25"/>
       <c r="AG34" s="26"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>230</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>222</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" ht="60" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>399</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>489</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="60" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>423</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>477</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>485</v>
       </c>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="AI43" s="5"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>476</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>391</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="60" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>413</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>418</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>419</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="60" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>420</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>427</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>392</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>407</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>408</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>401</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>432</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>421</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>478</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>490</v>
       </c>
@@ -7493,48 +7493,49 @@
     <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
     <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
-    <hyperlink ref="C16" r:id="rId7" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
-    <hyperlink ref="C17" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
-    <hyperlink ref="F17" r:id="rId9" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
-    <hyperlink ref="B19" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
-    <hyperlink ref="B20" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
-    <hyperlink ref="C20" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
-    <hyperlink ref="C30" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
-    <hyperlink ref="D2" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
-    <hyperlink ref="L31" r:id="rId16" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
-    <hyperlink ref="B33" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
-    <hyperlink ref="C33" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
-    <hyperlink ref="D33" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
-    <hyperlink ref="E33" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
-    <hyperlink ref="E34" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
-    <hyperlink ref="B34" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
-    <hyperlink ref="C34" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
-    <hyperlink ref="D34" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
-    <hyperlink ref="B13" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
-    <hyperlink ref="B17" r:id="rId26" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
-    <hyperlink ref="C37" r:id="rId27" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
-    <hyperlink ref="B51" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
-    <hyperlink ref="C51" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
-    <hyperlink ref="D51" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
-    <hyperlink ref="B52" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
-    <hyperlink ref="C52" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
-    <hyperlink ref="D52" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
-    <hyperlink ref="B53" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
-    <hyperlink ref="C53" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
-    <hyperlink ref="D53" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B56" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C56" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D56" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B57" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C57" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D57" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
-    <hyperlink ref="B58" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
-    <hyperlink ref="C58" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
-    <hyperlink ref="D58" r:id="rId45" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
+    <hyperlink ref="C17" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
+    <hyperlink ref="B19" r:id="rId9" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
+    <hyperlink ref="C30" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
+    <hyperlink ref="D2" r:id="rId14" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
+    <hyperlink ref="L31" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
+    <hyperlink ref="B33" r:id="rId16" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
+    <hyperlink ref="C33" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
+    <hyperlink ref="D33" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
+    <hyperlink ref="E33" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
+    <hyperlink ref="E34" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
+    <hyperlink ref="B34" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
+    <hyperlink ref="C34" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
+    <hyperlink ref="D34" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
+    <hyperlink ref="B13" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
+    <hyperlink ref="B17" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
+    <hyperlink ref="C37" r:id="rId26" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
+    <hyperlink ref="B51" r:id="rId27" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C51" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D51" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B52" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
+    <hyperlink ref="C52" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
+    <hyperlink ref="D52" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
+    <hyperlink ref="B53" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
+    <hyperlink ref="C53" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
+    <hyperlink ref="D53" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
+    <hyperlink ref="B56" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C56" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D56" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B57" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C57" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D57" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="B58" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
+    <hyperlink ref="C58" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
+    <hyperlink ref="D58" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
+    <hyperlink ref="C16" r:id="rId45" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
+    <hyperlink ref="E16" r:id="rId46" xr:uid="{C0FB29C0-C7F5-4661-A889-E389709E5899}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -7542,27 +7543,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -7771,7 +7772,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7842,7 +7843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -7907,7 +7908,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -7937,7 +7938,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -8011,7 +8012,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>231</v>
       </c>
@@ -8089,7 +8090,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>230</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>235</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -8223,33 +8224,33 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="154.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="15" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="154.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="15" width="22.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8307,7 +8308,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -8338,7 +8339,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8349,7 +8350,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -8363,7 +8364,7 @@
       <c r="R5" s="4"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8374,7 +8375,7 @@
       <c r="R6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -8388,7 +8389,7 @@
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -8398,7 +8399,7 @@
       <c r="K8" s="2"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>355</v>
       </c>
@@ -8412,7 +8413,7 @@
       </c>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>356</v>
       </c>
@@ -8426,7 +8427,7 @@
       </c>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>359</v>
       </c>
@@ -8437,7 +8438,7 @@
       <c r="K11" s="2"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -8452,13 +8453,13 @@
       <c r="K12" s="2"/>
       <c r="AF12" s="10"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -8466,22 +8467,22 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T15" s="5"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="T16" s="5"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:31" x14ac:dyDescent="0.3">
       <c r="T17" s="5"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:31" x14ac:dyDescent="0.3">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -8492,22 +8493,22 @@
       <c r="U18" s="7"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:31" x14ac:dyDescent="0.3">
       <c r="T19" s="5"/>
       <c r="U19" s="7"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:31" x14ac:dyDescent="0.3">
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:31" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="2"/>
@@ -8517,18 +8518,18 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:31" x14ac:dyDescent="0.3">
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="26" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:31" x14ac:dyDescent="0.3">
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:31" x14ac:dyDescent="0.3">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -8547,18 +8548,18 @@
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -8715,7 +8716,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -8747,7 +8748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>182</v>
       </c>
@@ -8835,18 +8836,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -8884,7 +8885,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -8927,23 +8928,23 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="139.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="25.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="139.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9042,7 +9043,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -9051,7 +9052,7 @@
       </c>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -9105,7 +9106,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -9134,7 +9135,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -9162,10 +9163,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V12" s="9"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U15" s="9"/>
     </row>
   </sheetData>
@@ -9190,15 +9191,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="W3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -9441,7 +9442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -9458,7 +9459,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -9494,28 +9495,28 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="22" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9592,7 +9593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9634,7 +9635,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -9676,7 +9677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -9729,7 +9730,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -9758,7 +9759,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>381</v>
       </c>
@@ -9807,18 +9808,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9861,12 +9862,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -9877,7 +9878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -9892,7 +9893,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H9" s="9"/>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF71012-E2B6-4AA1-860A-35EF92345B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3374113C-DB9E-47EB-894C-2373A22B4FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23040" windowHeight="11292" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osprey_E2E" sheetId="26" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="506">
   <si>
     <t>UserName</t>
   </si>
@@ -1577,6 +1577,12 @@
   </si>
   <si>
     <t>10002928 - 2</t>
+  </si>
+  <si>
+    <t>CHE_FR_Full Gift Card</t>
+  </si>
+  <si>
+    <t>4SL94X89N5675C49L76J</t>
   </si>
 </sst>
 </file>
@@ -6032,12 +6038,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT58"/>
+  <dimension ref="A1:AT59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7380,44 +7386,17 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>421</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R56" t="s">
-        <v>474</v>
-      </c>
-      <c r="S56" t="s">
-        <v>475</v>
-      </c>
-      <c r="T56" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="U56" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="V56" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="W56" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="X56" s="5" t="s">
-        <v>422</v>
+        <v>504</v>
+      </c>
+      <c r="AO56" s="30" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>278</v>
@@ -7434,25 +7413,25 @@
       <c r="S57" t="s">
         <v>475</v>
       </c>
-      <c r="T57" t="s">
-        <v>479</v>
-      </c>
-      <c r="U57" t="s">
-        <v>480</v>
-      </c>
-      <c r="V57" t="s">
-        <v>481</v>
-      </c>
-      <c r="W57" s="5" t="s">
-        <v>482</v>
+      <c r="T57" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="U57" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V57" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="W57" s="35" t="s">
+        <v>426</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>278</v>
@@ -7470,18 +7449,53 @@
         <v>475</v>
       </c>
       <c r="T58" t="s">
+        <v>479</v>
+      </c>
+      <c r="U58" t="s">
+        <v>480</v>
+      </c>
+      <c r="V58" t="s">
+        <v>481</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>490</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R59" t="s">
+        <v>474</v>
+      </c>
+      <c r="S59" t="s">
+        <v>475</v>
+      </c>
+      <c r="T59" t="s">
         <v>491</v>
       </c>
-      <c r="U58" t="s">
+      <c r="U59" t="s">
         <v>492</v>
       </c>
-      <c r="V58" t="s">
+      <c r="V59" t="s">
         <v>493</v>
       </c>
-      <c r="W58" s="5" t="s">
+      <c r="W59" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="X58" s="5" t="s">
+      <c r="X59" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7522,15 +7536,15 @@
     <hyperlink ref="B53" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
     <hyperlink ref="C53" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
     <hyperlink ref="D53" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B56" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C56" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D56" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B57" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C57" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D57" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
-    <hyperlink ref="B58" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
-    <hyperlink ref="C58" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
-    <hyperlink ref="D58" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
+    <hyperlink ref="B57" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C57" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D57" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B58" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C58" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D58" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="B59" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
+    <hyperlink ref="C59" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
+    <hyperlink ref="D59" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
     <hyperlink ref="C16" r:id="rId45" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
     <hyperlink ref="E16" r:id="rId46" xr:uid="{C0FB29C0-C7F5-4661-A889-E389709E5899}"/>
   </hyperlinks>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3374113C-DB9E-47EB-894C-2373A22B4FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206D34D-452E-4014-B759-6D23289300DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="508">
   <si>
     <t>UserName</t>
   </si>
@@ -1583,6 +1583,12 @@
   </si>
   <si>
     <t>4SL94X89N5675C49L76J</t>
+  </si>
+  <si>
+    <t>CHE_IT_Partial_Giftcard</t>
+  </si>
+  <si>
+    <t>5ZH78N52V7249U84A32E</t>
   </si>
 </sst>
 </file>
@@ -6038,12 +6044,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT59"/>
+  <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomLeft" activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7394,44 +7400,17 @@
         <v>505</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>421</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R57" t="s">
-        <v>474</v>
-      </c>
-      <c r="S57" t="s">
-        <v>475</v>
-      </c>
-      <c r="T57" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="U57" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="V57" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="W57" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="X57" s="5" t="s">
-        <v>422</v>
+        <v>506</v>
+      </c>
+      <c r="AO57" s="30" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>278</v>
@@ -7448,25 +7427,25 @@
       <c r="S58" t="s">
         <v>475</v>
       </c>
-      <c r="T58" t="s">
-        <v>479</v>
-      </c>
-      <c r="U58" t="s">
-        <v>480</v>
-      </c>
-      <c r="V58" t="s">
-        <v>481</v>
-      </c>
-      <c r="W58" s="5" t="s">
-        <v>482</v>
+      <c r="T58" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="U58" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V58" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="W58" s="35" t="s">
+        <v>426</v>
       </c>
       <c r="X58" s="5" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>278</v>
@@ -7484,18 +7463,53 @@
         <v>475</v>
       </c>
       <c r="T59" t="s">
+        <v>479</v>
+      </c>
+      <c r="U59" t="s">
+        <v>480</v>
+      </c>
+      <c r="V59" t="s">
+        <v>481</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="X59" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R60" t="s">
+        <v>474</v>
+      </c>
+      <c r="S60" t="s">
+        <v>475</v>
+      </c>
+      <c r="T60" t="s">
         <v>491</v>
       </c>
-      <c r="U59" t="s">
+      <c r="U60" t="s">
         <v>492</v>
       </c>
-      <c r="V59" t="s">
+      <c r="V60" t="s">
         <v>493</v>
       </c>
-      <c r="W59" s="5" t="s">
+      <c r="W60" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="X59" s="5" t="s">
+      <c r="X60" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7536,15 +7550,15 @@
     <hyperlink ref="B53" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
     <hyperlink ref="C53" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
     <hyperlink ref="D53" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B57" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C57" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D57" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B58" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C58" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D58" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
-    <hyperlink ref="B59" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
-    <hyperlink ref="C59" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
-    <hyperlink ref="D59" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
+    <hyperlink ref="B58" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C58" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D58" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B59" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C59" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D59" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="B60" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
+    <hyperlink ref="C60" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
+    <hyperlink ref="D60" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
     <hyperlink ref="C16" r:id="rId45" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
     <hyperlink ref="E16" r:id="rId46" xr:uid="{C0FB29C0-C7F5-4661-A889-E389709E5899}"/>
   </hyperlinks>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206D34D-452E-4014-B759-6D23289300DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB2CFD1-9EE5-4285-85C3-AB91DB52A16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="511">
   <si>
     <t>UserName</t>
   </si>
@@ -1589,6 +1589,15 @@
   </si>
   <si>
     <t>5ZH78N52V7249U84A32E</t>
+  </si>
+  <si>
+    <t>NON_UK_PaypalDetails</t>
+  </si>
+  <si>
+    <t>sb-f8yww32864954@personal.example.com</t>
+  </si>
+  <si>
+    <t>GA$tG}g3</t>
   </si>
 </sst>
 </file>
@@ -6044,12 +6053,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT60"/>
+  <dimension ref="A1:AT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="S49" sqref="S49"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6557,102 +6566,61 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>294</v>
+        <v>508</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>278</v>
+        <v>509</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
+      <c r="E17" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R18" t="s">
-        <v>46</v>
-      </c>
-      <c r="S18" t="s">
-        <v>92</v>
-      </c>
-      <c r="T18" t="s">
-        <v>243</v>
-      </c>
-      <c r="U18" t="s">
-        <v>244</v>
-      </c>
-      <c r="V18" t="s">
-        <v>245</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
       <c r="R19" t="s">
         <v>46</v>
       </c>
@@ -6660,16 +6628,16 @@
         <v>92</v>
       </c>
       <c r="T19" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="U19" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="V19" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>93</v>
@@ -6680,21 +6648,18 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="7"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="9" t="s">
         <v>47</v>
       </c>
@@ -6707,7 +6672,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="5" t="s">
         <v>204</v>
       </c>
       <c r="N20" s="9"/>
@@ -6721,16 +6686,16 @@
         <v>92</v>
       </c>
       <c r="T20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="U20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="V20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X20" s="5" t="s">
         <v>93</v>
@@ -6741,130 +6706,180 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="M21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AE21" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG21" s="5"/>
-      <c r="AI21" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" t="s">
+        <v>158</v>
+      </c>
+      <c r="U21" t="s">
+        <v>159</v>
+      </c>
+      <c r="V21" t="s">
+        <v>160</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AJ22" s="5" t="s">
-        <v>299</v>
+      <c r="AE22" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>186</v>
-      </c>
-      <c r="M23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N23" t="s">
-        <v>208</v>
-      </c>
-      <c r="R23" t="s">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>187</v>
+      <c r="AJ23" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>72</v>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="R24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" t="s">
-        <v>264</v>
-      </c>
-      <c r="M25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Q25" t="s">
-        <v>265</v>
+      <c r="AI25" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" t="s">
+        <v>264</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N26" t="s">
-        <v>375</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>207</v>
+      <c r="Q26" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AO27" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>229</v>
+      <c r="N27" t="s">
+        <v>375</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AE28" t="s">
-        <v>252</v>
+      <c r="AO28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>204</v>
@@ -6875,124 +6890,111 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>255</v>
+      </c>
       <c r="M30" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T30" t="s">
-        <v>243</v>
-      </c>
-      <c r="U30" t="s">
-        <v>244</v>
-      </c>
-      <c r="V30" t="s">
-        <v>245</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5">
-        <v>888888</v>
-      </c>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM30" s="5">
-        <v>123</v>
-      </c>
-      <c r="AN30" s="7"/>
+      <c r="AE30" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="10"/>
       <c r="M31" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S31" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" t="s">
+        <v>243</v>
+      </c>
+      <c r="U31" t="s">
+        <v>244</v>
+      </c>
+      <c r="V31" t="s">
+        <v>245</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5">
+        <v>888888</v>
+      </c>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>123</v>
+      </c>
+      <c r="AN31" s="7"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T32" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T33" s="5"/>
+      <c r="T33" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>281</v>
@@ -7006,162 +7008,169 @@
       <c r="E34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="M34" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R34" t="s">
-        <v>171</v>
-      </c>
-      <c r="S34" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC34" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD34" s="26">
-        <v>4</v>
-      </c>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="26"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE35" s="5" t="s">
-        <v>220</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="M35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R35" t="s">
+        <v>171</v>
+      </c>
+      <c r="S35" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC35" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD35" s="26">
+        <v>4</v>
+      </c>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="26"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>222</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>388</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>389</v>
+        <v>230</v>
+      </c>
+      <c r="AE36" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="O37" s="5"/>
-      <c r="R37" t="s">
-        <v>92</v>
-      </c>
-      <c r="S37" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC37" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>388</v>
       </c>
       <c r="AT37" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="60" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>399</v>
-      </c>
-      <c r="C38" s="10"/>
+        <v>224</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="O38" s="5"/>
-      <c r="AC38" s="28"/>
-      <c r="AE38" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI38" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="R38" t="s">
+        <v>92</v>
+      </c>
+      <c r="S38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC38" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" ht="60" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="O39" s="5"/>
       <c r="AC39" s="28"/>
-      <c r="AE39" s="36" t="s">
+      <c r="AE39" s="29" t="s">
         <v>400</v>
       </c>
       <c r="AF39" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH39" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="AI39" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="AI39" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="60" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="O40" s="5"/>
       <c r="AC40" s="28"/>
-      <c r="AE40" s="29" t="s">
+      <c r="AE40" s="36" t="s">
         <v>400</v>
       </c>
       <c r="AF40" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI40" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" ht="30" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="AH40" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI40" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" ht="60" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>402</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="O41" s="5"/>
+      <c r="AC41" s="28"/>
       <c r="AE41" s="29" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF41" t="s">
         <v>398</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>477</v>
-      </c>
-      <c r="AE42" s="36" t="s">
-        <v>486</v>
+        <v>402</v>
+      </c>
+      <c r="AE42" s="29" t="s">
+        <v>397</v>
       </c>
       <c r="AF42" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH42" s="36" t="s">
-        <v>486</v>
+        <v>398</v>
       </c>
       <c r="AI42" s="5" t="s">
         <v>122</v>
@@ -7169,61 +7178,64 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE43" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="AI43" s="5"/>
+        <v>477</v>
+      </c>
+      <c r="AE43" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH43" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="AI43" s="5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE44" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="AI44" s="5"/>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>476</v>
       </c>
-      <c r="AE44" s="36" t="s">
+      <c r="AE45" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="AI44" s="5" t="s">
+      <c r="AI45" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:46" ht="30" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:46" ht="30" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>391</v>
       </c>
-      <c r="AE45" s="29" t="s">
+      <c r="AE46" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AF46" t="s">
         <v>398</v>
       </c>
-      <c r="AI45" s="5" t="s">
+      <c r="AI46" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="60" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:46" ht="60" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>413</v>
       </c>
-      <c r="AE46" s="29" t="s">
+      <c r="AE47" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="AF46" s="34" t="s">
+      <c r="AF47" s="34" t="s">
         <v>415</v>
-      </c>
-      <c r="AI46" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" ht="30" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE47" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF47" s="34" t="s">
-        <v>417</v>
       </c>
       <c r="AI47" s="5" t="s">
         <v>122</v>
@@ -7231,7 +7243,7 @@
     </row>
     <row r="48" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE48" s="29" t="s">
         <v>416</v>
@@ -7240,75 +7252,54 @@
         <v>417</v>
       </c>
       <c r="AI48" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41" ht="60" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" ht="30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AE49" s="29" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF49" s="34" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AI49" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="60" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE50" s="33" t="s">
-        <v>430</v>
+        <v>420</v>
+      </c>
+      <c r="AE50" s="29" t="s">
+        <v>414</v>
       </c>
       <c r="AF50" s="34" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="AI50" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>392</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R51" t="s">
-        <v>474</v>
-      </c>
-      <c r="S51" t="s">
-        <v>475</v>
-      </c>
-      <c r="T51" t="s">
-        <v>393</v>
-      </c>
-      <c r="U51" t="s">
-        <v>394</v>
-      </c>
-      <c r="V51" t="s">
-        <v>396</v>
-      </c>
-      <c r="W51" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="X51" s="5" t="s">
-        <v>93</v>
+        <v>427</v>
+      </c>
+      <c r="AE51" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF51" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI51" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>278</v>
@@ -7326,16 +7317,16 @@
         <v>475</v>
       </c>
       <c r="T52" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="U52" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="V52" t="s">
-        <v>403</v>
-      </c>
-      <c r="W52" s="31" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="X52" s="5" t="s">
         <v>93</v>
@@ -7343,7 +7334,7 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>278</v>
@@ -7360,92 +7351,92 @@
       <c r="S53" t="s">
         <v>475</v>
       </c>
-      <c r="T53" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="U53" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="V53" s="33" t="s">
-        <v>412</v>
+      <c r="T53" t="s">
+        <v>404</v>
+      </c>
+      <c r="U53" t="s">
+        <v>405</v>
+      </c>
+      <c r="V53" t="s">
+        <v>403</v>
       </c>
       <c r="W53" s="31" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="X53" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO54" s="30" t="s">
-        <v>496</v>
+        <v>408</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R54" t="s">
+        <v>474</v>
+      </c>
+      <c r="S54" t="s">
+        <v>475</v>
+      </c>
+      <c r="T54" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="U54" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="V54" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="W54" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="AO55" s="30" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="AO56" s="30" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>504</v>
+      </c>
+      <c r="AO57" s="30" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>506</v>
       </c>
-      <c r="AO57" s="30" t="s">
+      <c r="AO58" s="30" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>421</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R58" t="s">
-        <v>474</v>
-      </c>
-      <c r="S58" t="s">
-        <v>475</v>
-      </c>
-      <c r="T58" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="U58" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="V58" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="W58" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="X58" s="5" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>278</v>
@@ -7462,25 +7453,25 @@
       <c r="S59" t="s">
         <v>475</v>
       </c>
-      <c r="T59" t="s">
-        <v>479</v>
-      </c>
-      <c r="U59" t="s">
-        <v>480</v>
-      </c>
-      <c r="V59" t="s">
-        <v>481</v>
-      </c>
-      <c r="W59" s="5" t="s">
-        <v>482</v>
+      <c r="T59" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="U59" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V59" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="W59" s="35" t="s">
+        <v>426</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>278</v>
@@ -7498,18 +7489,53 @@
         <v>475</v>
       </c>
       <c r="T60" t="s">
+        <v>479</v>
+      </c>
+      <c r="U60" t="s">
+        <v>480</v>
+      </c>
+      <c r="V60" t="s">
+        <v>481</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>490</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R61" t="s">
+        <v>474</v>
+      </c>
+      <c r="S61" t="s">
+        <v>475</v>
+      </c>
+      <c r="T61" t="s">
         <v>491</v>
       </c>
-      <c r="U60" t="s">
+      <c r="U61" t="s">
         <v>492</v>
       </c>
-      <c r="V60" t="s">
+      <c r="V61" t="s">
         <v>493</v>
       </c>
-      <c r="W60" s="5" t="s">
+      <c r="W61" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="X60" s="5" t="s">
+      <c r="X61" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7521,49 +7547,50 @@
     <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
     <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
-    <hyperlink ref="C17" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
-    <hyperlink ref="F17" r:id="rId8" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
-    <hyperlink ref="B19" r:id="rId9" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
-    <hyperlink ref="C30" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
+    <hyperlink ref="C18" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
+    <hyperlink ref="B20" r:id="rId9" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
+    <hyperlink ref="C20" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
+    <hyperlink ref="C31" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
     <hyperlink ref="D2" r:id="rId14" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
-    <hyperlink ref="L31" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
-    <hyperlink ref="B33" r:id="rId16" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
-    <hyperlink ref="C33" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
-    <hyperlink ref="D33" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
-    <hyperlink ref="E33" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
-    <hyperlink ref="E34" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
-    <hyperlink ref="B34" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
-    <hyperlink ref="C34" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
-    <hyperlink ref="D34" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
+    <hyperlink ref="L32" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
+    <hyperlink ref="B34" r:id="rId16" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
+    <hyperlink ref="C34" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
+    <hyperlink ref="D34" r:id="rId18" xr:uid="{00000000-0004-0000-1600-000012000000}"/>
+    <hyperlink ref="E34" r:id="rId19" xr:uid="{00000000-0004-0000-1600-000013000000}"/>
+    <hyperlink ref="E35" r:id="rId20" xr:uid="{00000000-0004-0000-1600-000014000000}"/>
+    <hyperlink ref="B35" r:id="rId21" xr:uid="{00000000-0004-0000-1600-000015000000}"/>
+    <hyperlink ref="C35" r:id="rId22" xr:uid="{00000000-0004-0000-1600-000016000000}"/>
+    <hyperlink ref="D35" r:id="rId23" xr:uid="{00000000-0004-0000-1600-000017000000}"/>
     <hyperlink ref="B13" r:id="rId24" xr:uid="{00000000-0004-0000-1600-000018000000}"/>
-    <hyperlink ref="B17" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
-    <hyperlink ref="C37" r:id="rId26" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
-    <hyperlink ref="B51" r:id="rId27" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
-    <hyperlink ref="C51" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
-    <hyperlink ref="D51" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
-    <hyperlink ref="B52" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
-    <hyperlink ref="C52" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
-    <hyperlink ref="D52" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
-    <hyperlink ref="B53" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
-    <hyperlink ref="C53" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
-    <hyperlink ref="D53" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B58" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C58" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D58" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B59" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C59" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D59" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
-    <hyperlink ref="B60" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
-    <hyperlink ref="C60" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
-    <hyperlink ref="D60" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
+    <hyperlink ref="B18" r:id="rId25" xr:uid="{00000000-0004-0000-1600-000019000000}"/>
+    <hyperlink ref="C38" r:id="rId26" xr:uid="{1864C442-0D98-42E4-A5FA-B81EFAA05600}"/>
+    <hyperlink ref="B52" r:id="rId27" display="testersemail.278@gmail.com" xr:uid="{34BD3CEC-6340-4CBD-96DC-8D004250BF84}"/>
+    <hyperlink ref="C52" r:id="rId28" display="testersemail.278@gmail.com" xr:uid="{F1625DAF-2FCD-401E-B451-0BDE8A534010}"/>
+    <hyperlink ref="D52" r:id="rId29" display="testersemail.278@gmail.com" xr:uid="{07702DCB-4B62-4824-BB8A-83439182C0EA}"/>
+    <hyperlink ref="B53" r:id="rId30" display="testersemail.278@gmail.com" xr:uid="{5B1965CC-AC91-4E74-81AB-F5894D8C2D9D}"/>
+    <hyperlink ref="C53" r:id="rId31" display="testersemail.278@gmail.com" xr:uid="{41C8C86C-6596-41A3-B56B-A8BC6862F5E2}"/>
+    <hyperlink ref="D53" r:id="rId32" display="testersemail.278@gmail.com" xr:uid="{6A001A27-2D56-448C-93B5-920CBED417DB}"/>
+    <hyperlink ref="B54" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
+    <hyperlink ref="C54" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
+    <hyperlink ref="D54" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
+    <hyperlink ref="B59" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C59" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D59" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B60" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C60" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D60" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="B61" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
+    <hyperlink ref="C61" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
+    <hyperlink ref="D61" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
     <hyperlink ref="C16" r:id="rId45" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
     <hyperlink ref="E16" r:id="rId46" xr:uid="{C0FB29C0-C7F5-4661-A889-E389709E5899}"/>
+    <hyperlink ref="C17" r:id="rId47" xr:uid="{F8C53466-9F31-496C-AFF6-C0A66B95BCD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB2CFD1-9EE5-4285-85C3-AB91DB52A16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BDDBAE-4D56-489D-9F1A-E7955BC89784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="513">
   <si>
     <t>UserName</t>
   </si>
@@ -1598,6 +1598,12 @@
   </si>
   <si>
     <t>GA$tG}g3</t>
+  </si>
+  <si>
+    <t>NW_Partial_GiftCard</t>
+  </si>
+  <si>
+    <t>6SE33H85K8376Y63K73N</t>
   </si>
 </sst>
 </file>
@@ -6053,12 +6059,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT61"/>
+  <dimension ref="A1:AT62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7434,44 +7440,17 @@
         <v>507</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>421</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R59" t="s">
-        <v>474</v>
-      </c>
-      <c r="S59" t="s">
-        <v>475</v>
-      </c>
-      <c r="T59" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="U59" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="V59" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="W59" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="X59" s="5" t="s">
-        <v>422</v>
+        <v>511</v>
+      </c>
+      <c r="AO59" s="30" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>278</v>
@@ -7488,25 +7467,25 @@
       <c r="S60" t="s">
         <v>475</v>
       </c>
-      <c r="T60" t="s">
-        <v>479</v>
-      </c>
-      <c r="U60" t="s">
-        <v>480</v>
-      </c>
-      <c r="V60" t="s">
-        <v>481</v>
-      </c>
-      <c r="W60" s="5" t="s">
-        <v>482</v>
+      <c r="T60" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="U60" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V60" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="W60" s="35" t="s">
+        <v>426</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>278</v>
@@ -7524,18 +7503,53 @@
         <v>475</v>
       </c>
       <c r="T61" t="s">
+        <v>479</v>
+      </c>
+      <c r="U61" t="s">
+        <v>480</v>
+      </c>
+      <c r="V61" t="s">
+        <v>481</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="X61" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>490</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R62" t="s">
+        <v>474</v>
+      </c>
+      <c r="S62" t="s">
+        <v>475</v>
+      </c>
+      <c r="T62" t="s">
         <v>491</v>
       </c>
-      <c r="U61" t="s">
+      <c r="U62" t="s">
         <v>492</v>
       </c>
-      <c r="V61" t="s">
+      <c r="V62" t="s">
         <v>493</v>
       </c>
-      <c r="W61" s="5" t="s">
+      <c r="W62" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="X61" s="5" t="s">
+      <c r="X62" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7576,15 +7590,15 @@
     <hyperlink ref="B54" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
     <hyperlink ref="C54" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
     <hyperlink ref="D54" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B59" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C59" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D59" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B60" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C60" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D60" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
-    <hyperlink ref="B61" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
-    <hyperlink ref="C61" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
-    <hyperlink ref="D61" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
+    <hyperlink ref="B60" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C60" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D60" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B61" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C61" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D61" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="B62" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
+    <hyperlink ref="C62" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
+    <hyperlink ref="D62" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
     <hyperlink ref="C16" r:id="rId45" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
     <hyperlink ref="E16" r:id="rId46" xr:uid="{C0FB29C0-C7F5-4661-A889-E389709E5899}"/>
     <hyperlink ref="C17" r:id="rId47" xr:uid="{F8C53466-9F31-496C-AFF6-C0A66B95BCD6}"/>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BDDBAE-4D56-489D-9F1A-E7955BC89784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD94F6A5-D7A6-4D65-AE17-802F9EF9EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6062,9 +6062,9 @@
   <dimension ref="A1:AT62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD94F6A5-D7A6-4D65-AE17-802F9EF9EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F027298F-3C01-42D6-87E0-79F90E781C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="515">
   <si>
     <t>UserName</t>
   </si>
@@ -1604,6 +1604,12 @@
   </si>
   <si>
     <t>6SE33H85K8376Y63K73N</t>
+  </si>
+  <si>
+    <t>Europe_en_Partial_Giftcard</t>
+  </si>
+  <si>
+    <t>6CB88R93E5464H47K76J</t>
   </si>
 </sst>
 </file>
@@ -6059,12 +6065,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT62"/>
+  <dimension ref="A1:AT63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7448,44 +7454,17 @@
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>421</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R60" t="s">
-        <v>474</v>
-      </c>
-      <c r="S60" t="s">
-        <v>475</v>
-      </c>
-      <c r="T60" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="U60" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="V60" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="W60" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="X60" s="5" t="s">
-        <v>422</v>
+        <v>513</v>
+      </c>
+      <c r="AO60" s="30" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>278</v>
@@ -7502,25 +7481,25 @@
       <c r="S61" t="s">
         <v>475</v>
       </c>
-      <c r="T61" t="s">
-        <v>479</v>
-      </c>
-      <c r="U61" t="s">
-        <v>480</v>
-      </c>
-      <c r="V61" t="s">
-        <v>481</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>482</v>
+      <c r="T61" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="U61" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V61" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="W61" s="35" t="s">
+        <v>426</v>
       </c>
       <c r="X61" s="5" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>278</v>
@@ -7538,18 +7517,53 @@
         <v>475</v>
       </c>
       <c r="T62" t="s">
+        <v>479</v>
+      </c>
+      <c r="U62" t="s">
+        <v>480</v>
+      </c>
+      <c r="V62" t="s">
+        <v>481</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="X62" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>490</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R63" t="s">
+        <v>474</v>
+      </c>
+      <c r="S63" t="s">
+        <v>475</v>
+      </c>
+      <c r="T63" t="s">
         <v>491</v>
       </c>
-      <c r="U62" t="s">
+      <c r="U63" t="s">
         <v>492</v>
       </c>
-      <c r="V62" t="s">
+      <c r="V63" t="s">
         <v>493</v>
       </c>
-      <c r="W62" s="5" t="s">
+      <c r="W63" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="X62" s="5" t="s">
+      <c r="X63" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7590,15 +7604,15 @@
     <hyperlink ref="B54" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
     <hyperlink ref="C54" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
     <hyperlink ref="D54" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B60" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C60" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D60" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B61" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C61" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D61" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
-    <hyperlink ref="B62" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
-    <hyperlink ref="C62" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
-    <hyperlink ref="D62" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
+    <hyperlink ref="B61" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C61" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D61" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B62" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C62" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D62" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="B63" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
+    <hyperlink ref="C63" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
+    <hyperlink ref="D63" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
     <hyperlink ref="C16" r:id="rId45" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
     <hyperlink ref="E16" r:id="rId46" xr:uid="{C0FB29C0-C7F5-4661-A889-E389709E5899}"/>
     <hyperlink ref="C17" r:id="rId47" xr:uid="{F8C53466-9F31-496C-AFF6-C0A66B95BCD6}"/>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F027298F-3C01-42D6-87E0-79F90E781C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3F60A9-6EDA-4FCB-A958-9FBDB320665A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="517">
   <si>
     <t>UserName</t>
   </si>
@@ -1610,6 +1610,12 @@
   </si>
   <si>
     <t>6CB88R93E5464H47K76J</t>
+  </si>
+  <si>
+    <t>sweden_Partial_Giftcard</t>
+  </si>
+  <si>
+    <t>8PF94V42Z5685D73S28F</t>
   </si>
 </sst>
 </file>
@@ -6065,12 +6071,12 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AT63"/>
+  <dimension ref="A1:AT64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7462,44 +7468,17 @@
         <v>514</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>421</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="R61" t="s">
-        <v>474</v>
-      </c>
-      <c r="S61" t="s">
-        <v>475</v>
-      </c>
-      <c r="T61" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="U61" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="V61" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="W61" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="X61" s="5" t="s">
-        <v>422</v>
+        <v>515</v>
+      </c>
+      <c r="AO61" s="30" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>278</v>
@@ -7516,25 +7495,25 @@
       <c r="S62" t="s">
         <v>475</v>
       </c>
-      <c r="T62" t="s">
-        <v>479</v>
-      </c>
-      <c r="U62" t="s">
-        <v>480</v>
-      </c>
-      <c r="V62" t="s">
-        <v>481</v>
-      </c>
-      <c r="W62" s="5" t="s">
-        <v>482</v>
+      <c r="T62" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="U62" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V62" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="W62" s="35" t="s">
+        <v>426</v>
       </c>
       <c r="X62" s="5" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>278</v>
@@ -7552,18 +7531,53 @@
         <v>475</v>
       </c>
       <c r="T63" t="s">
+        <v>479</v>
+      </c>
+      <c r="U63" t="s">
+        <v>480</v>
+      </c>
+      <c r="V63" t="s">
+        <v>481</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>490</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R64" t="s">
+        <v>474</v>
+      </c>
+      <c r="S64" t="s">
+        <v>475</v>
+      </c>
+      <c r="T64" t="s">
         <v>491</v>
       </c>
-      <c r="U63" t="s">
+      <c r="U64" t="s">
         <v>492</v>
       </c>
-      <c r="V63" t="s">
+      <c r="V64" t="s">
         <v>493</v>
       </c>
-      <c r="W63" s="5" t="s">
+      <c r="W64" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="X63" s="5" t="s">
+      <c r="X64" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7604,15 +7618,15 @@
     <hyperlink ref="B54" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{E91B6625-1005-4D68-8C77-C24DDB033C2B}"/>
     <hyperlink ref="C54" r:id="rId34" display="testersemail.278@gmail.com" xr:uid="{015DE811-F050-4B71-96A8-193BA2EE4365}"/>
     <hyperlink ref="D54" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{6A56F90F-8F22-4C03-B66D-47272E68A409}"/>
-    <hyperlink ref="B61" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
-    <hyperlink ref="C61" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
-    <hyperlink ref="D61" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
-    <hyperlink ref="B62" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
-    <hyperlink ref="C62" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
-    <hyperlink ref="D62" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
-    <hyperlink ref="B63" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
-    <hyperlink ref="C63" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
-    <hyperlink ref="D63" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
+    <hyperlink ref="B62" r:id="rId36" display="testersemail.278@gmail.com" xr:uid="{6ECC3E7A-0650-471A-8118-361B581591B2}"/>
+    <hyperlink ref="C62" r:id="rId37" display="testersemail.278@gmail.com" xr:uid="{FFDC6FD4-A6DF-4655-B604-131C2FEC8FCA}"/>
+    <hyperlink ref="D62" r:id="rId38" display="testersemail.278@gmail.com" xr:uid="{E68CD518-C7DB-4D2A-BFE5-92473B1B7D82}"/>
+    <hyperlink ref="B63" r:id="rId39" display="testersemail.278@gmail.com" xr:uid="{C068F1CE-D006-4174-81C1-E2703766A79B}"/>
+    <hyperlink ref="C63" r:id="rId40" display="testersemail.278@gmail.com" xr:uid="{2393F234-B92D-48CB-B748-088EB5B8D9F0}"/>
+    <hyperlink ref="D63" r:id="rId41" display="testersemail.278@gmail.com" xr:uid="{EB4696D1-B300-4BCB-8F2F-4D7BB5228026}"/>
+    <hyperlink ref="B64" r:id="rId42" display="testersemail.278@gmail.com" xr:uid="{D584C792-57C6-4711-A589-420F8316183F}"/>
+    <hyperlink ref="C64" r:id="rId43" display="testersemail.278@gmail.com" xr:uid="{A41CA42C-EB84-484F-8296-5619531A4831}"/>
+    <hyperlink ref="D64" r:id="rId44" display="testersemail.278@gmail.com" xr:uid="{CEF795FF-332A-44D2-8EDF-ED7A85B34C63}"/>
     <hyperlink ref="C16" r:id="rId45" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
     <hyperlink ref="E16" r:id="rId46" xr:uid="{C0FB29C0-C7F5-4661-A889-E389709E5899}"/>
     <hyperlink ref="C17" r:id="rId47" xr:uid="{F8C53466-9F31-496C-AFF6-C0A66B95BCD6}"/>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3F60A9-6EDA-4FCB-A958-9FBDB320665A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366EC375-6C77-4DEE-8E0E-D1282961470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15240" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osprey_E2E" sheetId="26" r:id="rId1"/>
@@ -2139,34 +2139,34 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="12.6640625" customWidth="1"/>
-    <col min="19" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="31" width="11" customWidth="1"/>
-    <col min="38" max="38" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.44140625" customWidth="1"/>
-    <col min="45" max="45" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.42578125" customWidth="1"/>
+    <col min="45" max="45" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>468</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>463</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>503</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>461</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>460</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>457</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>455</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>453</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>452</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>383</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>261</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="7"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>203</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>230</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>253</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>255</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>256</v>
       </c>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="AP40" s="7"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>260</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>268</v>
       </c>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>271</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="AH44" s="25"/>
       <c r="AI44" s="26"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>283</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>432</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>497</v>
       </c>
@@ -3531,12 +3531,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3599,7 +3599,7 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="Q5" s="4"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3717,12 +3717,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -3778,27 +3778,27 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="9"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H5" s="10"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H6" s="5"/>
     </row>
   </sheetData>
@@ -3815,9 +3815,9 @@
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -3983,16 +3983,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -4183,19 +4183,19 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -4414,13 +4414,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -4502,13 +4502,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4521,7 +4521,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4549,23 +4549,23 @@
       <selection activeCell="I2" sqref="I2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N7" s="15"/>
     </row>
   </sheetData>
@@ -4794,21 +4794,21 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.6640625" customWidth="1"/>
+    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.7109375" customWidth="1"/>
     <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -4976,13 +4976,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="222.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="222.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>305</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -5102,19 +5102,19 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -5197,63 +5197,63 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -5274,16 +5274,16 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>323</v>
       </c>
@@ -5418,24 +5418,24 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5508,7 +5508,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>379</v>
       </c>
@@ -5661,15 +5661,15 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>32881</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -5944,17 +5944,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -6074,39 +6074,39 @@
   <dimension ref="A1:AT64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="25" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.44140625" customWidth="1"/>
-    <col min="43" max="43" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.42578125" customWidth="1"/>
+    <col min="43" max="43" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>495</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>261</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -6582,7 +6582,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -6632,7 +6632,7 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="7"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>255</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>260</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>268</v>
       </c>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>271</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="AF35" s="25"/>
       <c r="AG35" s="26"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>230</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="60" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>399</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:46" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>489</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="60" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>423</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>402</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>477</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>485</v>
       </c>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="AI44" s="5"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>476</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>391</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="60" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:46" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:46" ht="30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:46" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>418</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>419</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="60" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>420</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>427</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>392</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>401</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>432</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>504</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>506</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>511</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>513</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>515</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>421</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>478</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>490</v>
       </c>
@@ -7644,23 +7644,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>231</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>230</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>235</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -8321,33 +8321,33 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="154.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.6640625" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="15" width="22.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="154.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="15" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8447,7 +8447,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="R5" s="4"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8472,7 +8472,7 @@
       <c r="R6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="K8" s="2"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>355</v>
       </c>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>356</v>
       </c>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>359</v>
       </c>
@@ -8535,7 +8535,7 @@
       <c r="K11" s="2"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -8550,13 +8550,13 @@
       <c r="K12" s="2"/>
       <c r="AF12" s="10"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -8564,22 +8564,22 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="T15" s="5"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="T16" s="5"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:31" x14ac:dyDescent="0.25">
       <c r="T17" s="5"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:31" x14ac:dyDescent="0.25">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -8590,22 +8590,22 @@
       <c r="U18" s="7"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:31" x14ac:dyDescent="0.25">
       <c r="T19" s="5"/>
       <c r="U19" s="7"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:31" x14ac:dyDescent="0.25">
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:31" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="2"/>
@@ -8615,18 +8615,18 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:31" x14ac:dyDescent="0.25">
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="26" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:31" x14ac:dyDescent="0.25">
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:31" x14ac:dyDescent="0.25">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -8645,18 +8645,18 @@
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -8813,7 +8813,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>182</v>
       </c>
@@ -8933,18 +8933,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -8982,7 +8982,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -9025,23 +9025,23 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="25.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="139.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="139.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -9203,7 +9203,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -9232,7 +9232,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -9260,10 +9260,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="V12" s="9"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U15" s="9"/>
     </row>
   </sheetData>
@@ -9288,15 +9288,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -9464,7 +9464,7 @@
       </c>
       <c r="W3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -9592,28 +9592,28 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="22" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9732,7 +9732,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -9827,7 +9827,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>381</v>
       </c>
@@ -9905,18 +9905,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9959,12 +9959,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="9"/>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366EC375-6C77-4DEE-8E0E-D1282961470C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444DED5F-54C2-4514-AA40-212B4CCE0346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15240" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osprey_E2E" sheetId="26" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="519">
   <si>
     <t>UserName</t>
   </si>
@@ -1616,6 +1616,12 @@
   </si>
   <si>
     <t>8PF94V42Z5685D73S28F</t>
+  </si>
+  <si>
+    <t>Den shipping method</t>
+  </si>
+  <si>
+    <t>Standard Delivery (2-6 Days)</t>
   </si>
 </sst>
 </file>
@@ -2133,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB898B7-F8AD-4A5F-BE2F-C5B4C0E6C103}">
-  <dimension ref="A1:AT47"/>
+  <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,115 +2712,104 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>383</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9"/>
-      <c r="N17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="2"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="7"/>
-      <c r="AM17" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="AN17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO17">
-        <v>123</v>
+        <v>517</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="AL17" s="5" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>261</v>
-      </c>
-      <c r="N18" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
+      <c r="N18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AL18" t="s">
-        <v>262</v>
+      <c r="O18" s="2"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="2"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="7"/>
+      <c r="AM18" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO18">
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AM19" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO19">
-        <v>123</v>
+      <c r="AL19" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="X20" t="s">
-        <v>250</v>
-      </c>
       <c r="AM20" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AN20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AO20">
-        <v>1234</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="X21" t="s">
         <v>250</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AN21" s="7" t="s">
         <v>101</v>
       </c>
       <c r="AO21">
-        <v>123</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="N22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>204</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>250</v>
       </c>
       <c r="AM22" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AN22" s="7" t="s">
         <v>101</v>
@@ -2825,222 +2820,183 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" t="s">
-        <v>46</v>
+      <c r="X23" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO23">
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="N24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
       <c r="S24" t="s">
         <v>45</v>
       </c>
       <c r="T24" t="s">
-        <v>73</v>
-      </c>
-      <c r="U24" s="2"/>
-      <c r="V24" t="s">
-        <v>176</v>
-      </c>
-      <c r="W24" t="s">
-        <v>175</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="N25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="N25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AM25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO25">
-        <v>12</v>
-      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25" t="s">
+        <v>73</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" t="s">
+        <v>176</v>
+      </c>
+      <c r="W25" t="s">
+        <v>175</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s">
-        <v>446</v>
-      </c>
-      <c r="N26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="Y26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
+      <c r="AM26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO26">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>278</v>
+        <v>447</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="Y27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
-      </c>
-      <c r="N28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="S28" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" t="s">
-        <v>92</v>
-      </c>
-      <c r="U28" t="s">
-        <v>445</v>
-      </c>
-      <c r="V28" t="s">
-        <v>444</v>
-      </c>
-      <c r="W28" t="s">
-        <v>316</v>
-      </c>
-      <c r="X28" t="s">
-        <v>443</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
       <c r="S29" t="s">
         <v>46</v>
       </c>
@@ -3048,16 +3004,16 @@
         <v>92</v>
       </c>
       <c r="U29" t="s">
-        <v>152</v>
+        <v>445</v>
       </c>
       <c r="V29" t="s">
-        <v>153</v>
+        <v>444</v>
       </c>
       <c r="W29" t="s">
-        <v>154</v>
-      </c>
-      <c r="X29" s="5" t="s">
-        <v>155</v>
+        <v>316</v>
+      </c>
+      <c r="X29" t="s">
+        <v>443</v>
       </c>
       <c r="Y29" s="5" t="s">
         <v>93</v>
@@ -3068,21 +3024,18 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="7"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="9" t="s">
         <v>47</v>
       </c>
@@ -3096,7 +3049,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="5" t="s">
         <v>204</v>
       </c>
       <c r="O30" s="9"/>
@@ -3110,16 +3063,16 @@
         <v>92</v>
       </c>
       <c r="U30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="V30" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="W30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>93</v>
@@ -3130,134 +3083,185 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="7"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
-      </c>
-      <c r="N31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AF31" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG31" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="AI31" s="5"/>
-      <c r="AK31" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" t="s">
+        <v>92</v>
+      </c>
+      <c r="U31" t="s">
+        <v>158</v>
+      </c>
+      <c r="V31" t="s">
+        <v>159</v>
+      </c>
+      <c r="W31" t="s">
+        <v>160</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
-      </c>
-      <c r="N32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AL32" s="5" t="s">
-        <v>440</v>
+      <c r="AF32" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG32" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI32" s="5"/>
+      <c r="AK32" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="N33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="O33" t="s">
-        <v>208</v>
-      </c>
-      <c r="S33" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>187</v>
+      <c r="AL33" s="5" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AK34" s="5" t="s">
-        <v>122</v>
+      <c r="O34" t="s">
+        <v>208</v>
+      </c>
+      <c r="S34" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G35" t="s">
-        <v>201</v>
-      </c>
-      <c r="I35" t="s">
-        <v>264</v>
-      </c>
-      <c r="N35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="R35" t="s">
-        <v>265</v>
+      <c r="AK35" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O36" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>207</v>
+      <c r="R36" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AQ37" t="s">
-        <v>438</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>242</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>229</v>
+      <c r="O37" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AF38" t="s">
-        <v>252</v>
+      <c r="AQ38" t="s">
+        <v>438</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>204</v>
@@ -3268,215 +3272,226 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="10"/>
+        <v>255</v>
+      </c>
       <c r="N40" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40" t="s">
-        <v>45</v>
-      </c>
-      <c r="U40" t="s">
-        <v>243</v>
-      </c>
-      <c r="V40" t="s">
-        <v>244</v>
-      </c>
-      <c r="W40" t="s">
-        <v>245</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5">
-        <v>888888</v>
-      </c>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO40" s="5">
-        <v>123</v>
-      </c>
-      <c r="AP40" s="7"/>
+      <c r="AF40" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>115</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="L41" t="s">
-        <v>45</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="10"/>
       <c r="N41" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>243</v>
+      </c>
+      <c r="V41" t="s">
+        <v>244</v>
+      </c>
+      <c r="W41" t="s">
+        <v>245</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5">
+        <v>888888</v>
+      </c>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO41" s="5">
+        <v>123</v>
+      </c>
+      <c r="AP41" s="7"/>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="U42" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>268</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>434</v>
+        <v>260</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="U43" s="5"/>
+      <c r="U43" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="N44" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="S44" t="s">
-        <v>171</v>
-      </c>
-      <c r="T44" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD44" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE44" s="26">
-        <v>4</v>
-      </c>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="26"/>
+      <c r="U44" s="5"/>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>283</v>
-      </c>
-      <c r="H45" t="s">
-        <v>433</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="N45" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="S45" t="s">
+        <v>171</v>
+      </c>
+      <c r="T45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD45" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE45" s="26">
+        <v>4</v>
+      </c>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="26"/>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="H46" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>432</v>
+      </c>
+      <c r="H47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>497</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>278</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>278</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="S47" t="s">
+      <c r="S48" t="s">
         <v>498</v>
       </c>
-      <c r="T47" t="s">
+      <c r="T48" t="s">
         <v>499</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U48" t="s">
         <v>500</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V48" t="s">
         <v>501</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W48" t="s">
         <v>502</v>
       </c>
-      <c r="X47">
+      <c r="X48">
         <v>5610</v>
       </c>
-      <c r="Y47">
+      <c r="Y48">
         <v>9999998989</v>
       </c>
     </row>
@@ -3486,34 +3501,34 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{988153DA-4C7F-4E94-8BE8-0DD9931BAD37}"/>
     <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{0CF42103-522A-4081-86EE-96C4D820CDE6}"/>
     <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{E526016C-54AA-411B-A691-7BAB8AB9D9FD}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{5BEF175C-8568-4877-A1F2-5279887261D7}"/>
-    <hyperlink ref="C24" r:id="rId6" xr:uid="{7360C1AA-AEFB-46C3-853D-764E45594F6A}"/>
-    <hyperlink ref="C27" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{29A5ACF3-3F2E-44A7-9A0A-2EE8BF006B55}"/>
-    <hyperlink ref="F27" r:id="rId8" xr:uid="{95E71A71-F2E2-4BC5-8B88-1B4C30F9F198}"/>
-    <hyperlink ref="B29" r:id="rId9" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{191A3A40-6322-47F9-A472-42727476E676}"/>
-    <hyperlink ref="C29" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{35CA3724-5B20-4215-A7D8-8278AED7B63B}"/>
-    <hyperlink ref="B30" r:id="rId11" xr:uid="{F80ED036-D37D-4D25-9E84-167E827AEACC}"/>
-    <hyperlink ref="C30" r:id="rId12" xr:uid="{39E86C17-AB6B-4736-8FD8-51D664482BDC}"/>
-    <hyperlink ref="C40" r:id="rId13" xr:uid="{BB71BF80-5A94-4DF5-A619-592504F030A5}"/>
+    <hyperlink ref="E24" r:id="rId5" xr:uid="{5BEF175C-8568-4877-A1F2-5279887261D7}"/>
+    <hyperlink ref="C25" r:id="rId6" xr:uid="{7360C1AA-AEFB-46C3-853D-764E45594F6A}"/>
+    <hyperlink ref="C28" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{29A5ACF3-3F2E-44A7-9A0A-2EE8BF006B55}"/>
+    <hyperlink ref="F28" r:id="rId8" xr:uid="{95E71A71-F2E2-4BC5-8B88-1B4C30F9F198}"/>
+    <hyperlink ref="B30" r:id="rId9" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{191A3A40-6322-47F9-A472-42727476E676}"/>
+    <hyperlink ref="C30" r:id="rId10" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{35CA3724-5B20-4215-A7D8-8278AED7B63B}"/>
+    <hyperlink ref="B31" r:id="rId11" xr:uid="{F80ED036-D37D-4D25-9E84-167E827AEACC}"/>
+    <hyperlink ref="C31" r:id="rId12" xr:uid="{39E86C17-AB6B-4736-8FD8-51D664482BDC}"/>
+    <hyperlink ref="C41" r:id="rId13" xr:uid="{BB71BF80-5A94-4DF5-A619-592504F030A5}"/>
     <hyperlink ref="D2" r:id="rId14" display="testersemail.278@gmail.com" xr:uid="{762E3771-1A14-4ADF-B233-F706CC67585C}"/>
-    <hyperlink ref="M41" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{661FBEFB-D442-44E4-9A42-65D24FE8370F}"/>
-    <hyperlink ref="B43" r:id="rId16" xr:uid="{2CEE2BBC-471E-4476-B76A-3F7233050B89}"/>
-    <hyperlink ref="C43" r:id="rId17" xr:uid="{7922502D-4C00-44E1-A6F4-71BA0DC39C3E}"/>
-    <hyperlink ref="D43" r:id="rId18" xr:uid="{9D66CAC1-5E53-4022-8016-B75952B461B9}"/>
-    <hyperlink ref="E43" r:id="rId19" xr:uid="{B938F466-5E31-4018-876F-6A28D8433DCB}"/>
-    <hyperlink ref="E44" r:id="rId20" xr:uid="{FD64FD41-4B71-430A-9E87-E770BDBC1DE8}"/>
-    <hyperlink ref="B44" r:id="rId21" xr:uid="{5430F070-68FA-45BC-A7D7-FD317B6AB933}"/>
-    <hyperlink ref="C44" r:id="rId22" xr:uid="{1415DD0C-4B90-4CB8-BE39-94246EA7E5A0}"/>
-    <hyperlink ref="D44" r:id="rId23" xr:uid="{A0DAC1F1-32A0-464B-9F05-699659069EBF}"/>
-    <hyperlink ref="B23" r:id="rId24" xr:uid="{8D6727B2-1421-40EB-A9FF-43ACDF93F9F2}"/>
-    <hyperlink ref="B27" r:id="rId25" xr:uid="{80B92F45-F944-4987-B387-B5FFF81D060A}"/>
-    <hyperlink ref="C23" r:id="rId26" xr:uid="{F850A62A-C089-4319-BFF8-B73B40867433}"/>
+    <hyperlink ref="M42" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{661FBEFB-D442-44E4-9A42-65D24FE8370F}"/>
+    <hyperlink ref="B44" r:id="rId16" xr:uid="{2CEE2BBC-471E-4476-B76A-3F7233050B89}"/>
+    <hyperlink ref="C44" r:id="rId17" xr:uid="{7922502D-4C00-44E1-A6F4-71BA0DC39C3E}"/>
+    <hyperlink ref="D44" r:id="rId18" xr:uid="{9D66CAC1-5E53-4022-8016-B75952B461B9}"/>
+    <hyperlink ref="E44" r:id="rId19" xr:uid="{B938F466-5E31-4018-876F-6A28D8433DCB}"/>
+    <hyperlink ref="E45" r:id="rId20" xr:uid="{FD64FD41-4B71-430A-9E87-E770BDBC1DE8}"/>
+    <hyperlink ref="B45" r:id="rId21" xr:uid="{5430F070-68FA-45BC-A7D7-FD317B6AB933}"/>
+    <hyperlink ref="C45" r:id="rId22" xr:uid="{1415DD0C-4B90-4CB8-BE39-94246EA7E5A0}"/>
+    <hyperlink ref="D45" r:id="rId23" xr:uid="{A0DAC1F1-32A0-464B-9F05-699659069EBF}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{8D6727B2-1421-40EB-A9FF-43ACDF93F9F2}"/>
+    <hyperlink ref="B28" r:id="rId25" xr:uid="{80B92F45-F944-4987-B387-B5FFF81D060A}"/>
+    <hyperlink ref="C24" r:id="rId26" xr:uid="{F850A62A-C089-4319-BFF8-B73B40867433}"/>
     <hyperlink ref="AF5" r:id="rId27" display="https://mcloud-na-preprod.osprey.com/gb/osprey-wildwater-dry-bag-25-f23" xr:uid="{B5863964-95C1-446D-B803-1B9817B08AF9}"/>
     <hyperlink ref="E4" r:id="rId28" xr:uid="{4D82D90C-6A09-4AC3-A8C8-5F7819640F35}"/>
     <hyperlink ref="F4" r:id="rId29" display="Testers@278" xr:uid="{38B6B8B2-7D9E-49C1-995B-96D60F02BCAC}"/>
     <hyperlink ref="B4" r:id="rId30" xr:uid="{A856926B-E4BE-424C-AA62-B5630885F674}"/>
-    <hyperlink ref="F43" r:id="rId31" xr:uid="{A128FC83-D12D-41E4-B5D0-0CD0EECE675B}"/>
-    <hyperlink ref="AF31" r:id="rId32" display="https://mcloud-na-preprod.osprey.com/gb/poco-child-carrier-raincover-2021" xr:uid="{AC7094B1-806E-4D9E-9038-9F3AAE7BEB1C}"/>
+    <hyperlink ref="F44" r:id="rId31" xr:uid="{A128FC83-D12D-41E4-B5D0-0CD0EECE675B}"/>
+    <hyperlink ref="AF32" r:id="rId32" display="https://mcloud-na-preprod.osprey.com/gb/poco-child-carrier-raincover-2021" xr:uid="{AC7094B1-806E-4D9E-9038-9F3AAE7BEB1C}"/>
     <hyperlink ref="B3" r:id="rId33" display="testersemail.278@gmail.com" xr:uid="{088F18E1-F7B7-4F33-943D-3DE88D7E17B1}"/>
     <hyperlink ref="C3" r:id="rId34" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{4443F290-9645-4F18-8CF3-41BE5F7A1452}"/>
     <hyperlink ref="D3" r:id="rId35" display="testersemail.278@gmail.com" xr:uid="{EDE37AC4-39BE-4B7A-A8EB-1AF6D11A8ECB}"/>
@@ -6073,10 +6088,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/OSPEMEA_E2E_orderDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444DED5F-54C2-4514-AA40-212B4CCE0346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7CE359-340B-4828-B061-0B8EF2860957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osprey_E2E" sheetId="26" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="520">
   <si>
     <t>UserName</t>
   </si>
@@ -1622,6 +1622,9 @@
   </si>
   <si>
     <t>Standard Delivery (2-6 Days)</t>
+  </si>
+  <si>
+    <t>Consegna standard (2-7 giorni)</t>
   </si>
 </sst>
 </file>
@@ -2141,38 +2144,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB898B7-F8AD-4A5F-BE2F-C5B4C0E6C103}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="31" width="11" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.42578125" customWidth="1"/>
-    <col min="45" max="45" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.44140625" customWidth="1"/>
+    <col min="45" max="45" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>468</v>
       </c>
@@ -2431,7 +2434,7 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>463</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>503</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>461</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>460</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>457</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>455</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>453</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>452</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>517</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>383</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>261</v>
       </c>
@@ -2761,7 +2764,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -2917,7 +2920,7 @@
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -2956,7 +2959,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -2990,7 +2993,7 @@
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -3025,7 +3028,7 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -3087,7 +3090,7 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="7"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>156</v>
       </c>
@@ -3148,7 +3151,7 @@
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>166</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>201</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>256</v>
       </c>
@@ -3344,7 +3347,7 @@
       </c>
       <c r="AP41" s="7"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>268</v>
       </c>
@@ -3399,7 +3402,7 @@
       </c>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>271</v>
       </c>
@@ -3444,7 +3447,7 @@
       <c r="AH45" s="25"/>
       <c r="AI45" s="26"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>283</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>432</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>497</v>
       </c>
@@ -3546,12 +3549,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3614,7 +3617,7 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3638,7 +3641,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3648,7 +3651,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -3667,7 +3670,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -3690,7 +3693,7 @@
       <c r="Q5" s="4"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3732,12 +3735,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3775,7 +3778,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -3793,27 +3796,27 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="9"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H5" s="10"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H6" s="5"/>
     </row>
   </sheetData>
@@ -3830,9 +3833,9 @@
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -3943,7 +3946,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -3998,16 +4001,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -4198,19 +4201,19 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -4429,13 +4432,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -4517,13 +4520,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4536,7 +4539,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4564,23 +4567,23 @@
       <selection activeCell="I2" sqref="I2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N7" s="15"/>
     </row>
   </sheetData>
@@ -4809,21 +4812,21 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.7109375" customWidth="1"/>
+    <col min="14" max="14" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.6640625" customWidth="1"/>
     <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -4991,13 +4994,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="222.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="222.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +5052,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>305</v>
       </c>
@@ -5089,7 +5092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>306</v>
       </c>
@@ -5117,19 +5120,19 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -5212,63 +5215,63 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -5289,16 +5292,16 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -5372,7 +5375,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>323</v>
       </c>
@@ -5433,24 +5436,24 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5523,7 +5526,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -5562,7 +5565,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -5616,7 +5619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -5638,7 +5641,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>379</v>
       </c>
@@ -5676,15 +5679,15 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>32881</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -5959,17 +5962,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6059,7 +6062,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -6088,40 +6091,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
+      <selection pane="bottomLeft" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="25" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.42578125" customWidth="1"/>
-    <col min="43" max="43" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.44140625" customWidth="1"/>
+    <col min="43" max="43" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6324,7 +6327,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>487</v>
       </c>
@@ -6367,16 +6370,16 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>495</v>
       </c>
       <c r="M6" s="2"/>
       <c r="AJ6" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>383</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>261</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -6561,7 +6564,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -6597,7 +6600,7 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -6614,7 +6617,7 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -6647,7 +6650,7 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -6682,7 +6685,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -6743,7 +6746,7 @@
       <c r="AI20" s="5"/>
       <c r="AJ20" s="7"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -6802,7 +6805,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>186</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -6910,7 +6913,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>255</v>
       </c>
@@ -6932,7 +6935,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -6994,7 +6997,7 @@
       </c>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -7014,7 +7017,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>260</v>
       </c>
@@ -7025,7 +7028,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>268</v>
       </c>
@@ -7049,7 +7052,7 @@
       </c>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>271</v>
       </c>
@@ -7094,7 +7097,7 @@
       <c r="AF35" s="25"/>
       <c r="AG35" s="26"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>230</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="60" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>399</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>489</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="60" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>423</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>402</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>477</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>485</v>
       </c>
@@ -7235,7 +7238,7 @@
       </c>
       <c r="AI44" s="5"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>476</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>391</v>
       </c>
@@ -7260,7 +7263,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="60" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>418</v>
       </c>
@@ -7288,7 +7291,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>419</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="60" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>420</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>427</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>392</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>401</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>432</v>
       </c>
@@ -7451,7 +7454,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>504</v>
       </c>
@@ -7459,7 +7462,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>506</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>511</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>513</v>
       </c>
@@ -7483,7 +7486,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>515</v>
       </c>
@@ -7491,7 +7494,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>421</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>478</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>490</v>
       </c>
@@ -7598,10 +7601,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
     <hyperlink ref="F2" r:id="rId3" display="Testers@278" xr:uid="{00000000-0004-0000-1600-000002000000}"/>
-    <hyperlink ref="C2" r:id="rId4" display="lotusqa.gld.stg.os.us.automation.01@gmail.com" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
     <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
     <hyperlink ref="C18" r:id="rId7" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
@@ -7611,7 +7614,7 @@
     <hyperlink ref="B21" r:id="rId11" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
     <hyperlink ref="C21" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
     <hyperlink ref="C31" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
-    <hyperlink ref="D2" r:id="rId14" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
+    <hyperlink ref="D2" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
     <hyperlink ref="L32" r:id="rId15" display="testersemail.278@gmail.com" xr:uid="{00000000-0004-0000-1600-00000F000000}"/>
     <hyperlink ref="B34" r:id="rId16" xr:uid="{00000000-0004-0000-1600-000010000000}"/>
     <hyperlink ref="C34" r:id="rId17" xr:uid="{00000000-0004-0000-1600-000011000000}"/>
@@ -7659,23 +7662,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -7892,7 +7895,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -7941,7 +7944,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7955,7 +7958,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -8020,7 +8023,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -8050,7 +8053,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -8091,7 +8094,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -8099,7 +8102,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -8161,7 +8164,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -8172,7 +8175,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>231</v>
       </c>
@@ -8202,7 +8205,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>292</v>
       </c>
@@ -8216,7 +8219,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>230</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -8250,7 +8253,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -8258,7 +8261,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>235</v>
       </c>
@@ -8266,7 +8269,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -8286,7 +8289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>268</v>
       </c>
@@ -8336,33 +8339,33 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="154.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="15" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="154.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="15" width="22.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8420,7 +8423,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -8440,7 +8443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -8451,7 +8454,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8462,7 +8465,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -8476,7 +8479,7 @@
       <c r="R5" s="4"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8487,7 +8490,7 @@
       <c r="R6" s="4"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -8501,7 +8504,7 @@
       <c r="R7" s="4"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -8511,7 +8514,7 @@
       <c r="K8" s="2"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>355</v>
       </c>
@@ -8525,7 +8528,7 @@
       </c>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>356</v>
       </c>
@@ -8539,7 +8542,7 @@
       </c>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>359</v>
       </c>
@@ -8550,7 +8553,7 @@
       <c r="K11" s="2"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>366</v>
       </c>
@@ -8565,13 +8568,13 @@
       <c r="K12" s="2"/>
       <c r="AF12" s="10"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -8579,22 +8582,22 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T15" s="5"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="T16" s="5"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:31" x14ac:dyDescent="0.3">
       <c r="T17" s="5"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:31" x14ac:dyDescent="0.3">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -8605,22 +8608,22 @@
       <c r="U18" s="7"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:31" x14ac:dyDescent="0.3">
       <c r="T19" s="5"/>
       <c r="U19" s="7"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:31" x14ac:dyDescent="0.3">
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:31" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="2"/>
@@ -8630,18 +8633,18 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:31" x14ac:dyDescent="0.3">
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="26" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:31" x14ac:dyDescent="0.3">
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:31" x14ac:dyDescent="0.3">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
@@ -8660,18 +8663,18 @@
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -8814,7 +8817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -8828,7 +8831,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -8874,7 +8877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -8908,7 +8911,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>182</v>
       </c>
@@ -8948,18 +8951,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -8997,7 +9000,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -9040,23 +9043,23 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="139.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="25.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="139.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9127,7 +9130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -9164,7 +9167,7 @@
       </c>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -9181,7 +9184,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -9218,7 +9221,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -9247,7 +9250,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -9261,7 +9264,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -9275,10 +9278,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V12" s="9"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U15" s="9"/>
     </row>
   </sheetData>
@@ -9303,15 +9306,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -9479,7 +9482,7 @@
       </c>
       <c r="W3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -9530,7 +9533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -9554,7 +9557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -9571,7 +9574,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -9607,28 +9610,28 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="22" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9705,7 +9708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9747,7 +9750,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -9767,7 +9770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -9775,7 +9778,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -9842,7 +9845,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -9871,7 +9874,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>381</v>
       </c>
@@ -9920,18 +9923,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9974,12 +9977,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -9990,7 +9993,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -10005,7 +10008,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H9" s="9"/>
     </row>
   </sheetData>
